--- a/BackTest/2019-10-16 BackTest HYC.xlsx
+++ b/BackTest/2019-10-16 BackTest HYC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-37.14285714285725</v>
+      </c>
       <c r="L12" t="n">
         <v>6.444</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.4399999999999995</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-11.62790697674418</v>
+      </c>
       <c r="L13" t="n">
         <v>6.439</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.4699999999999989</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>8.571428571428672</v>
+      </c>
       <c r="L14" t="n">
         <v>6.431</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.4699999999999989</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>6.434</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.5499999999999989</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-11.11111111111117</v>
+      </c>
       <c r="L16" t="n">
         <v>6.426</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.629999999999999</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-8.108108108107952</v>
+      </c>
       <c r="L17" t="n">
         <v>6.43</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.6899999999999995</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-15.00000000000011</v>
+      </c>
       <c r="L18" t="n">
         <v>6.420999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-20</v>
+      </c>
       <c r="L19" t="n">
         <v>6.414</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.7099999999999991</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-5.555555555555679</v>
+      </c>
       <c r="L20" t="n">
         <v>6.406999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.7599999999999989</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>10.00000000000002</v>
+      </c>
       <c r="L21" t="n">
         <v>6.409999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.8099999999999987</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-24.32432432432434</v>
+      </c>
       <c r="L22" t="n">
         <v>6.408999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.8099999999999987</v>
       </c>
       <c r="K23" t="n">
-        <v>-17.5</v>
+        <v>-17.64705882352957</v>
       </c>
       <c r="L23" t="n">
         <v>6.399999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.8099999999999987</v>
       </c>
       <c r="K24" t="n">
-        <v>-17.5</v>
+        <v>-17.64705882352957</v>
       </c>
       <c r="L24" t="n">
         <v>6.393999999999998</v>
@@ -1515,7 +1537,7 @@
         <v>0.8099999999999987</v>
       </c>
       <c r="K25" t="n">
-        <v>-4.347826086956567</v>
+        <v>7.692307692307534</v>
       </c>
       <c r="L25" t="n">
         <v>6.387999999999998</v>
@@ -1564,7 +1586,7 @@
         <v>0.839999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>-4.347826086956567</v>
+        <v>-14.28571428571441</v>
       </c>
       <c r="L26" t="n">
         <v>6.392999999999998</v>
@@ -1613,7 +1635,7 @@
         <v>0.839999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>1.538461538461509</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L27" t="n">
         <v>6.389999999999998</v>
@@ -1662,7 +1684,7 @@
         <v>0.8699999999999992</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.75409836065573</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L28" t="n">
         <v>6.389999999999997</v>
@@ -1711,7 +1733,7 @@
         <v>0.8699999999999992</v>
       </c>
       <c r="K29" t="n">
-        <v>-10.34482758620698</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>6.390999999999997</v>
@@ -1760,7 +1782,7 @@
         <v>0.8999999999999995</v>
       </c>
       <c r="K30" t="n">
-        <v>-16.66666666666674</v>
+        <v>-57.14285714285696</v>
       </c>
       <c r="L30" t="n">
         <v>6.387999999999997</v>
@@ -1809,7 +1831,7 @@
         <v>0.96</v>
       </c>
       <c r="K31" t="n">
-        <v>1.639344262295044</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>6.385999999999997</v>
@@ -1860,7 +1882,7 @@
         <v>0.9900000000000002</v>
       </c>
       <c r="K32" t="n">
-        <v>7.936507936508039</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>6.391999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>0.9900000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>-5.454545454545332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>6.397999999999998</v>
@@ -1962,7 +1984,7 @@
         <v>1.080000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>-14.75409836065581</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L34" t="n">
         <v>6.394999999999998</v>
@@ -2013,7 +2035,7 @@
         <v>1.210000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>5.405405405405389</v>
+        <v>18.91891891891885</v>
       </c>
       <c r="L35" t="n">
         <v>6.404999999999998</v>
@@ -2064,7 +2086,7 @@
         <v>1.250000000000002</v>
       </c>
       <c r="K36" t="n">
-        <v>11.42857142857139</v>
+        <v>7.317073170731718</v>
       </c>
       <c r="L36" t="n">
         <v>6.407999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>1.250000000000002</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L37" t="n">
         <v>6.410999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>1.280000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>15.25423728813553</v>
+        <v>21.95121951219498</v>
       </c>
       <c r="L38" t="n">
         <v>6.419999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>1.290000000000002</v>
       </c>
       <c r="K39" t="n">
-        <v>18.64406779661014</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>6.43</v>
@@ -2268,7 +2290,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K40" t="n">
-        <v>15.25423728813548</v>
+        <v>17.64705882352916</v>
       </c>
       <c r="L40" t="n">
         <v>6.442</v>
@@ -2319,7 +2341,7 @@
         <v>1.310000000000003</v>
       </c>
       <c r="K41" t="n">
-        <v>9.09090909090915</v>
+        <v>12.4999999999999</v>
       </c>
       <c r="L41" t="n">
         <v>6.449000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>1.310000000000003</v>
       </c>
       <c r="K42" t="n">
-        <v>19.99999999999993</v>
+        <v>12.4999999999999</v>
       </c>
       <c r="L42" t="n">
         <v>6.453000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>1.310000000000003</v>
       </c>
       <c r="K43" t="n">
-        <v>19.99999999999993</v>
+        <v>56.52173913043458</v>
       </c>
       <c r="L43" t="n">
         <v>6.457000000000003</v>
@@ -2472,7 +2494,7 @@
         <v>1.310000000000003</v>
       </c>
       <c r="K44" t="n">
-        <v>19.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>6.470000000000003</v>
@@ -2523,7 +2545,7 @@
         <v>1.320000000000004</v>
       </c>
       <c r="K45" t="n">
-        <v>17.64705882352921</v>
+        <v>42.85714285714069</v>
       </c>
       <c r="L45" t="n">
         <v>6.469000000000003</v>
@@ -2574,7 +2596,7 @@
         <v>1.330000000000005</v>
       </c>
       <c r="K46" t="n">
-        <v>14.28571428571418</v>
+        <v>49.99999999999834</v>
       </c>
       <c r="L46" t="n">
         <v>6.473000000000003</v>
@@ -2625,7 +2647,7 @@
         <v>1.430000000000005</v>
       </c>
       <c r="K47" t="n">
-        <v>-5.084745762711854</v>
+        <v>-59.99999999999834</v>
       </c>
       <c r="L47" t="n">
         <v>6.467000000000003</v>
@@ -2676,7 +2698,7 @@
         <v>1.530000000000006</v>
       </c>
       <c r="K48" t="n">
-        <v>15.15151515151508</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>6.468000000000004</v>
@@ -2727,7 +2749,7 @@
         <v>1.610000000000006</v>
       </c>
       <c r="K49" t="n">
-        <v>2.702702702702742</v>
+        <v>-22.5806451612899</v>
       </c>
       <c r="L49" t="n">
         <v>6.460000000000004</v>
@@ -2778,7 +2800,7 @@
         <v>1.630000000000005</v>
       </c>
       <c r="K50" t="n">
-        <v>9.589041095890375</v>
+        <v>-18.75000000000003</v>
       </c>
       <c r="L50" t="n">
         <v>6.455000000000004</v>
@@ -2829,7 +2851,7 @@
         <v>1.650000000000005</v>
       </c>
       <c r="K51" t="n">
-        <v>-1.449275362318799</v>
+        <v>-23.52941176470579</v>
       </c>
       <c r="L51" t="n">
         <v>6.447000000000005</v>
@@ -2880,7 +2902,7 @@
         <v>1.680000000000005</v>
       </c>
       <c r="K52" t="n">
-        <v>-10.14492753623185</v>
+        <v>-29.72972972972967</v>
       </c>
       <c r="L52" t="n">
         <v>6.436000000000004</v>
@@ -2931,7 +2953,7 @@
         <v>1.680000000000005</v>
       </c>
       <c r="K53" t="n">
-        <v>-10.14492753623185</v>
+        <v>-29.72972972972967</v>
       </c>
       <c r="L53" t="n">
         <v>6.425000000000004</v>
@@ -2982,7 +3004,7 @@
         <v>1.750000000000005</v>
       </c>
       <c r="K54" t="n">
-        <v>13.43283582089555</v>
+        <v>-6.976744186046338</v>
       </c>
       <c r="L54" t="n">
         <v>6.421000000000004</v>
@@ -3033,7 +3055,7 @@
         <v>1.830000000000005</v>
       </c>
       <c r="K55" t="n">
-        <v>-19.35483870967732</v>
+        <v>-23.99999999999998</v>
       </c>
       <c r="L55" t="n">
         <v>6.410000000000004</v>
@@ -3084,7 +3106,7 @@
         <v>1.830000000000005</v>
       </c>
       <c r="K56" t="n">
-        <v>-13.79310344827579</v>
+        <v>-4.999999999999889</v>
       </c>
       <c r="L56" t="n">
         <v>6.398000000000003</v>
@@ -3135,7 +3157,7 @@
         <v>1.830000000000005</v>
       </c>
       <c r="K57" t="n">
-        <v>-13.79310344827579</v>
+        <v>-40.00000000000006</v>
       </c>
       <c r="L57" t="n">
         <v>6.396000000000003</v>
@@ -3186,7 +3208,7 @@
         <v>1.900000000000005</v>
       </c>
       <c r="K58" t="n">
-        <v>-6.451612903225774</v>
+        <v>10.34482758620671</v>
       </c>
       <c r="L58" t="n">
         <v>6.391000000000003</v>
@@ -3237,7 +3259,7 @@
         <v>1.990000000000005</v>
       </c>
       <c r="K59" t="n">
-        <v>-20</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L59" t="n">
         <v>6.385000000000003</v>
@@ -3288,7 +3310,7 @@
         <v>2.090000000000005</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.797468354430285</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L60" t="n">
         <v>6.387000000000003</v>
@@ -3339,7 +3361,7 @@
         <v>2.090000000000005</v>
       </c>
       <c r="K61" t="n">
-        <v>-5.12820512820512</v>
+        <v>17.07317073170738</v>
       </c>
       <c r="L61" t="n">
         <v>6.391000000000004</v>
@@ -3390,7 +3412,7 @@
         <v>2.100000000000005</v>
       </c>
       <c r="K62" t="n">
-        <v>-3.797468354430403</v>
+        <v>19.04761904761907</v>
       </c>
       <c r="L62" t="n">
         <v>6.399000000000003</v>
@@ -3441,7 +3463,7 @@
         <v>2.110000000000005</v>
       </c>
       <c r="K63" t="n">
-        <v>-2.500000000000053</v>
+        <v>5.555555555555445</v>
       </c>
       <c r="L63" t="n">
         <v>6.408000000000003</v>
@@ -3492,7 +3514,7 @@
         <v>2.120000000000005</v>
       </c>
       <c r="K64" t="n">
-        <v>-1.234567901234649</v>
+        <v>37.93103448275853</v>
       </c>
       <c r="L64" t="n">
         <v>6.411000000000003</v>
@@ -3543,7 +3565,7 @@
         <v>2.190000000000004</v>
       </c>
       <c r="K65" t="n">
-        <v>-8.045977011494182</v>
+        <v>11.11111111111117</v>
       </c>
       <c r="L65" t="n">
         <v>6.415000000000004</v>
@@ -3594,7 +3616,7 @@
         <v>2.270000000000004</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>27.27272727272738</v>
       </c>
       <c r="L66" t="n">
         <v>6.427000000000004</v>
@@ -3645,7 +3667,7 @@
         <v>2.290000000000004</v>
       </c>
       <c r="K67" t="n">
-        <v>13.95348837209306</v>
+        <v>17.94871794871808</v>
       </c>
       <c r="L67" t="n">
         <v>6.441000000000004</v>
@@ -3696,7 +3718,7 @@
         <v>2.400000000000004</v>
       </c>
       <c r="K68" t="n">
-        <v>-10.344827586207</v>
+        <v>12.19512195121949</v>
       </c>
       <c r="L68" t="n">
         <v>6.437000000000003</v>
@@ -3747,7 +3769,7 @@
         <v>2.420000000000003</v>
       </c>
       <c r="K69" t="n">
-        <v>-3.703703703703745</v>
+        <v>-21.21212121212141</v>
       </c>
       <c r="L69" t="n">
         <v>6.440000000000003</v>
@@ -3798,7 +3820,7 @@
         <v>2.520000000000003</v>
       </c>
       <c r="K70" t="n">
-        <v>5.617977528089881</v>
+        <v>6.976744186046396</v>
       </c>
       <c r="L70" t="n">
         <v>6.443000000000003</v>
@@ -3849,7 +3871,7 @@
         <v>2.540000000000003</v>
       </c>
       <c r="K71" t="n">
-        <v>5.617977528089881</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>6.444000000000004</v>
@@ -3900,7 +3922,7 @@
         <v>2.570000000000003</v>
       </c>
       <c r="K72" t="n">
-        <v>12.35955056179782</v>
+        <v>4.34782608695664</v>
       </c>
       <c r="L72" t="n">
         <v>6.447000000000005</v>
@@ -3951,7 +3973,7 @@
         <v>2.590000000000003</v>
       </c>
       <c r="K73" t="n">
-        <v>9.890109890109892</v>
+        <v>-2.127659574468045</v>
       </c>
       <c r="L73" t="n">
         <v>6.447000000000005</v>
@@ -4002,7 +4024,7 @@
         <v>2.600000000000003</v>
       </c>
       <c r="K74" t="n">
-        <v>1.176470588235272</v>
+        <v>12.19512195121949</v>
       </c>
       <c r="L74" t="n">
         <v>6.445000000000005</v>
@@ -4053,7 +4075,7 @@
         <v>2.600000000000003</v>
       </c>
       <c r="K75" t="n">
-        <v>11.6883116883117</v>
+        <v>-9.090909090909188</v>
       </c>
       <c r="L75" t="n">
         <v>6.450000000000005</v>
@@ -4104,7 +4126,7 @@
         <v>2.640000000000003</v>
       </c>
       <c r="K76" t="n">
-        <v>16.04938271604941</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L76" t="n">
         <v>6.451000000000003</v>
@@ -4155,7 +4177,7 @@
         <v>2.780000000000004</v>
       </c>
       <c r="K77" t="n">
-        <v>-1.052631578947441</v>
+        <v>-10.5263157894737</v>
       </c>
       <c r="L77" t="n">
         <v>6.436000000000003</v>
@@ -4206,7 +4228,7 @@
         <v>2.870000000000005</v>
       </c>
       <c r="K78" t="n">
-        <v>1.030927835051616</v>
+        <v>15.55555555555558</v>
       </c>
       <c r="L78" t="n">
         <v>6.441000000000003</v>
@@ -4257,7 +4279,7 @@
         <v>2.950000000000005</v>
       </c>
       <c r="K79" t="n">
-        <v>2.083333333333381</v>
+        <v>-25.58139534883699</v>
       </c>
       <c r="L79" t="n">
         <v>6.440000000000002</v>
@@ -4308,7 +4330,7 @@
         <v>2.950000000000005</v>
       </c>
       <c r="K80" t="n">
-        <v>-9.302325581395362</v>
+        <v>-21.95121951219498</v>
       </c>
       <c r="L80" t="n">
         <v>6.429000000000002</v>
@@ -4359,7 +4381,7 @@
         <v>3.000000000000005</v>
       </c>
       <c r="K81" t="n">
-        <v>-14.28571428571437</v>
+        <v>-39.5348837209302</v>
       </c>
       <c r="L81" t="n">
         <v>6.415000000000002</v>
@@ -4410,7 +4432,7 @@
         <v>3.000000000000005</v>
       </c>
       <c r="K82" t="n">
-        <v>-15.55555555555561</v>
+        <v>-36.58536585365845</v>
       </c>
       <c r="L82" t="n">
         <v>6.398000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>3.110000000000006</v>
       </c>
       <c r="K83" t="n">
-        <v>-4</v>
+        <v>-5.882352941176491</v>
       </c>
       <c r="L83" t="n">
         <v>6.394000000000002</v>
@@ -4512,7 +4534,7 @@
         <v>3.110000000000006</v>
       </c>
       <c r="K84" t="n">
-        <v>-5.050505050505027</v>
+        <v>-5.882352941176491</v>
       </c>
       <c r="L84" t="n">
         <v>6.391000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>3.140000000000006</v>
       </c>
       <c r="K85" t="n">
-        <v>5.263157894736812</v>
+        <v>-7.999999999999964</v>
       </c>
       <c r="L85" t="n">
         <v>6.391000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>3.180000000000006</v>
       </c>
       <c r="K86" t="n">
-        <v>-7.692307692307708</v>
+        <v>15.00000000000004</v>
       </c>
       <c r="L86" t="n">
         <v>6.383000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>3.220000000000006</v>
       </c>
       <c r="K87" t="n">
-        <v>-13.97849462365587</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>6.385</v>
@@ -4716,7 +4738,7 @@
         <v>3.280000000000006</v>
       </c>
       <c r="K88" t="n">
-        <v>4.545454545454541</v>
+        <v>21.21212121212097</v>
       </c>
       <c r="L88" t="n">
         <v>6.384</v>
@@ -4767,7 +4789,7 @@
         <v>3.300000000000006</v>
       </c>
       <c r="K89" t="n">
-        <v>9.090909090909074</v>
+        <v>25.71428571428557</v>
       </c>
       <c r="L89" t="n">
         <v>6.393000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>3.430000000000006</v>
       </c>
       <c r="K90" t="n">
-        <v>-16.48351648351638</v>
+        <v>2.325581395348991</v>
       </c>
       <c r="L90" t="n">
         <v>6.389</v>
@@ -4869,7 +4891,7 @@
         <v>3.510000000000006</v>
       </c>
       <c r="K91" t="n">
-        <v>-5.154639175257696</v>
+        <v>17.64705882352953</v>
       </c>
       <c r="L91" t="n">
         <v>6.398000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>3.600000000000007</v>
       </c>
       <c r="K92" t="n">
-        <v>-16.50485436893206</v>
+        <v>-22.44897959183675</v>
       </c>
       <c r="L92" t="n">
         <v>6.398000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>3.610000000000007</v>
       </c>
       <c r="K93" t="n">
-        <v>-15.68627450980389</v>
+        <v>-23.99999999999998</v>
       </c>
       <c r="L93" t="n">
         <v>6.386</v>
@@ -5022,7 +5044,7 @@
         <v>3.680000000000006</v>
       </c>
       <c r="K94" t="n">
-        <v>-20.3703703703703</v>
+        <v>-40.74074074074069</v>
       </c>
       <c r="L94" t="n">
         <v>6.367</v>
@@ -5073,7 +5095,7 @@
         <v>3.680000000000006</v>
       </c>
       <c r="K95" t="n">
-        <v>-20.3703703703703</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L95" t="n">
         <v>6.345000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>3.680000000000006</v>
       </c>
       <c r="K96" t="n">
-        <v>-24.99999999999991</v>
+        <v>-30.43478260869559</v>
       </c>
       <c r="L96" t="n">
         <v>6.327000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>3.680000000000006</v>
       </c>
       <c r="K97" t="n">
-        <v>-13.33333333333321</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L97" t="n">
         <v>6.313000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>3.730000000000007</v>
       </c>
       <c r="K98" t="n">
-        <v>-30.23255813953489</v>
+        <v>-62.79069767441862</v>
       </c>
       <c r="L98" t="n">
         <v>6.288000000000002</v>
@@ -5277,7 +5299,7 @@
         <v>3.770000000000007</v>
       </c>
       <c r="K99" t="n">
-        <v>-26.82926829268294</v>
+        <v>-52.94117647058829</v>
       </c>
       <c r="L99" t="n">
         <v>6.257000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>3.790000000000006</v>
       </c>
       <c r="K100" t="n">
-        <v>-28.57142857142854</v>
+        <v>-100</v>
       </c>
       <c r="L100" t="n">
         <v>6.237000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>3.810000000000007</v>
       </c>
       <c r="K101" t="n">
-        <v>-25.92592592592587</v>
+        <v>-100</v>
       </c>
       <c r="L101" t="n">
         <v>6.207000000000002</v>
@@ -5430,7 +5452,7 @@
         <v>3.810000000000007</v>
       </c>
       <c r="K102" t="n">
-        <v>-25.92592592592587</v>
+        <v>-100</v>
       </c>
       <c r="L102" t="n">
         <v>6.186000000000002</v>
@@ -5481,7 +5503,7 @@
         <v>3.840000000000007</v>
       </c>
       <c r="K103" t="n">
-        <v>-39.7260273972602</v>
+        <v>-62.49999999999994</v>
       </c>
       <c r="L103" t="n">
         <v>6.169000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>3.990000000000007</v>
       </c>
       <c r="K104" t="n">
-        <v>-15.90909090909084</v>
+        <v>16.12903225806439</v>
       </c>
       <c r="L104" t="n">
         <v>6.174000000000001</v>
@@ -5583,7 +5605,7 @@
         <v>4.080000000000007</v>
       </c>
       <c r="K105" t="n">
-        <v>-27.65957446808505</v>
+        <v>-9.999999999999979</v>
       </c>
       <c r="L105" t="n">
         <v>6.17</v>
@@ -5634,7 +5656,7 @@
         <v>4.110000000000007</v>
       </c>
       <c r="K106" t="n">
-        <v>-20.43010752688175</v>
+        <v>-2.325581395348991</v>
       </c>
       <c r="L106" t="n">
         <v>6.169</v>
@@ -5685,7 +5707,7 @@
         <v>4.120000000000006</v>
       </c>
       <c r="K107" t="n">
-        <v>-17.77777777777779</v>
+        <v>7.692307692307762</v>
       </c>
       <c r="L107" t="n">
         <v>6.166999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>4.200000000000006</v>
       </c>
       <c r="K108" t="n">
-        <v>-15.21739130434778</v>
+        <v>34.88372093023266</v>
       </c>
       <c r="L108" t="n">
         <v>6.177999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>4.360000000000007</v>
       </c>
       <c r="K109" t="n">
-        <v>-30.18867924528303</v>
+        <v>1.754385964912242</v>
       </c>
       <c r="L109" t="n">
         <v>6.177</v>
@@ -5838,7 +5860,7 @@
         <v>4.460000000000007</v>
       </c>
       <c r="K110" t="n">
-        <v>-8.737864077669879</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L110" t="n">
         <v>6.188000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>4.490000000000006</v>
       </c>
       <c r="K111" t="n">
-        <v>-14.28571428571434</v>
+        <v>23.52941176470591</v>
       </c>
       <c r="L111" t="n">
         <v>6.204</v>
@@ -5940,7 +5962,7 @@
         <v>4.500000000000006</v>
       </c>
       <c r="K112" t="n">
-        <v>-6.666666666666628</v>
+        <v>18.18181818181822</v>
       </c>
       <c r="L112" t="n">
         <v>6.218999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>4.510000000000006</v>
       </c>
       <c r="K113" t="n">
-        <v>-4.444444444444451</v>
+        <v>-3.846153846153945</v>
       </c>
       <c r="L113" t="n">
         <v>6.231999999999998</v>
@@ -6042,7 +6064,7 @@
         <v>4.510000000000006</v>
       </c>
       <c r="K114" t="n">
-        <v>3.614457831325224</v>
+        <v>16.27906976744177</v>
       </c>
       <c r="L114" t="n">
         <v>6.229999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>4.510000000000006</v>
       </c>
       <c r="K115" t="n">
-        <v>3.614457831325224</v>
+        <v>10.00000000000002</v>
       </c>
       <c r="L115" t="n">
         <v>6.236999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>4.570000000000006</v>
       </c>
       <c r="K116" t="n">
-        <v>-3.370786516853962</v>
+        <v>-2.222222222222178</v>
       </c>
       <c r="L116" t="n">
         <v>6.234999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>4.630000000000005</v>
       </c>
       <c r="K117" t="n">
-        <v>3.15789473684204</v>
+        <v>-6.976744186046588</v>
       </c>
       <c r="L117" t="n">
         <v>6.24</v>
@@ -6246,7 +6268,7 @@
         <v>4.630000000000005</v>
       </c>
       <c r="K118" t="n">
-        <v>8.888888888888911</v>
+        <v>48.14814814814834</v>
       </c>
       <c r="L118" t="n">
         <v>6.237</v>
@@ -6297,7 +6319,7 @@
         <v>4.630000000000005</v>
       </c>
       <c r="K119" t="n">
-        <v>13.95348837209306</v>
+        <v>17.64705882352923</v>
       </c>
       <c r="L119" t="n">
         <v>6.249999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>4.670000000000005</v>
       </c>
       <c r="K120" t="n">
-        <v>11.36363636363633</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L120" t="n">
         <v>6.249</v>
@@ -6399,7 +6421,7 @@
         <v>4.680000000000005</v>
       </c>
       <c r="K121" t="n">
-        <v>12.6436781609196</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L121" t="n">
         <v>6.243999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>4.730000000000005</v>
       </c>
       <c r="K122" t="n">
-        <v>17.39130434782614</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>6.244999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>4.730000000000005</v>
       </c>
       <c r="K123" t="n">
-        <v>14.60674157303373</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>6.244999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>4.730000000000005</v>
       </c>
       <c r="K124" t="n">
-        <v>-2.702702702702774</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>6.244999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>4.780000000000005</v>
       </c>
       <c r="K125" t="n">
-        <v>2.857142857142807</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L125" t="n">
         <v>6.24</v>
@@ -6654,7 +6676,7 @@
         <v>4.830000000000005</v>
       </c>
       <c r="K126" t="n">
-        <v>5.555555555555576</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>6.246</v>
@@ -6705,7 +6727,7 @@
         <v>4.860000000000004</v>
       </c>
       <c r="K127" t="n">
-        <v>2.702702702702774</v>
+        <v>-13.04347826086937</v>
       </c>
       <c r="L127" t="n">
         <v>6.243</v>
@@ -6756,7 +6778,7 @@
         <v>4.900000000000004</v>
       </c>
       <c r="K128" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25.92592592592583</v>
       </c>
       <c r="L128" t="n">
         <v>6.236000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>4.970000000000003</v>
       </c>
       <c r="K129" t="n">
-        <v>21.31147540983616</v>
+        <v>13.33333333333343</v>
       </c>
       <c r="L129" t="n">
         <v>6.236000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>5.020000000000003</v>
       </c>
       <c r="K130" t="n">
-        <v>-3.571428571428679</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>6.235000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>5.060000000000003</v>
       </c>
       <c r="K131" t="n">
-        <v>-1.754385964912253</v>
+        <v>-3.030303030302981</v>
       </c>
       <c r="L131" t="n">
         <v>6.239000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>5.090000000000003</v>
       </c>
       <c r="K132" t="n">
-        <v>-5.084745762711931</v>
+        <v>-11.11111111111117</v>
       </c>
       <c r="L132" t="n">
         <v>6.235000000000001</v>
@@ -7011,7 +7033,7 @@
         <v>5.160000000000004</v>
       </c>
       <c r="K133" t="n">
-        <v>4.61538461538467</v>
+        <v>6.976744186046588</v>
       </c>
       <c r="L133" t="n">
         <v>6.238000000000001</v>
@@ -7062,7 +7084,7 @@
         <v>5.170000000000003</v>
       </c>
       <c r="K134" t="n">
-        <v>3.030303030303112</v>
+        <v>17.94871794871808</v>
       </c>
       <c r="L134" t="n">
         <v>6.240000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>5.170000000000003</v>
       </c>
       <c r="K135" t="n">
-        <v>3.030303030303112</v>
+        <v>5.882352941176625</v>
       </c>
       <c r="L135" t="n">
         <v>6.247000000000001</v>
@@ -7164,7 +7186,7 @@
         <v>5.250000000000004</v>
       </c>
       <c r="K136" t="n">
-        <v>23.52941176470597</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>6.257000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>5.290000000000004</v>
       </c>
       <c r="K137" t="n">
-        <v>21.21212121212135</v>
+        <v>53.84615384615388</v>
       </c>
       <c r="L137" t="n">
         <v>6.274000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>5.290000000000004</v>
       </c>
       <c r="K138" t="n">
-        <v>21.21212121212135</v>
+        <v>43.75000000000014</v>
       </c>
       <c r="L138" t="n">
         <v>6.295000000000002</v>
@@ -7317,7 +7339,7 @@
         <v>5.290000000000004</v>
       </c>
       <c r="K139" t="n">
-        <v>21.21212121212135</v>
+        <v>70.3703703703704</v>
       </c>
       <c r="L139" t="n">
         <v>6.309000000000003</v>
@@ -7368,7 +7390,7 @@
         <v>5.300000000000004</v>
       </c>
       <c r="K140" t="n">
-        <v>26.98412698412702</v>
+        <v>58.33333333333294</v>
       </c>
       <c r="L140" t="n">
         <v>6.327000000000002</v>
@@ -7419,7 +7441,7 @@
         <v>5.330000000000004</v>
       </c>
       <c r="K141" t="n">
-        <v>23.07692307692318</v>
+        <v>58.33333333333351</v>
       </c>
       <c r="L141" t="n">
         <v>6.338000000000003</v>
@@ -7470,7 +7492,7 @@
         <v>5.360000000000004</v>
       </c>
       <c r="K142" t="n">
-        <v>11.11111111111117</v>
+        <v>20</v>
       </c>
       <c r="L142" t="n">
         <v>6.349000000000002</v>
@@ -7521,7 +7543,7 @@
         <v>5.410000000000004</v>
       </c>
       <c r="K143" t="n">
-        <v>17.64705882352946</v>
+        <v>41.66666666666648</v>
       </c>
       <c r="L143" t="n">
         <v>6.358000000000002</v>
@@ -7572,7 +7594,7 @@
         <v>5.510000000000003</v>
       </c>
       <c r="K144" t="n">
-        <v>2.564102564102628</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>6.358000000000001</v>
@@ -7623,7 +7645,7 @@
         <v>5.530000000000004</v>
       </c>
       <c r="K145" t="n">
-        <v>6.666666666666651</v>
+        <v>-35.71428571428587</v>
       </c>
       <c r="L145" t="n">
         <v>6.356000000000002</v>
@@ -7674,7 +7696,7 @@
         <v>5.530000000000004</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>-58.33333333333351</v>
       </c>
       <c r="L146" t="n">
         <v>6.346000000000002</v>
@@ -7725,7 +7747,7 @@
         <v>5.530000000000004</v>
       </c>
       <c r="K147" t="n">
-        <v>4.477611940298413</v>
+        <v>-58.33333333333351</v>
       </c>
       <c r="L147" t="n">
         <v>6.332000000000003</v>
@@ -7776,7 +7798,7 @@
         <v>5.530000000000004</v>
       </c>
       <c r="K148" t="n">
-        <v>11.11111111111102</v>
+        <v>-58.33333333333351</v>
       </c>
       <c r="L148" t="n">
         <v>6.318000000000003</v>
@@ -7827,7 +7849,7 @@
         <v>5.560000000000003</v>
       </c>
       <c r="K149" t="n">
-        <v>-5.084745762711758</v>
+        <v>-61.53846153846151</v>
       </c>
       <c r="L149" t="n">
         <v>6.301000000000003</v>
@@ -7878,7 +7900,7 @@
         <v>5.560000000000003</v>
       </c>
       <c r="K150" t="n">
-        <v>3.703703703703789</v>
+        <v>-56.52173913043485</v>
       </c>
       <c r="L150" t="n">
         <v>6.285000000000002</v>
@@ -7929,7 +7951,7 @@
         <v>5.630000000000003</v>
       </c>
       <c r="K151" t="n">
-        <v>-15.78947368421049</v>
+        <v>-62.96296296296303</v>
       </c>
       <c r="L151" t="n">
         <v>6.265000000000002</v>
@@ -7980,7 +8002,7 @@
         <v>5.710000000000004</v>
       </c>
       <c r="K152" t="n">
-        <v>3.225806451612977</v>
+        <v>-46.66666666666659</v>
       </c>
       <c r="L152" t="n">
         <v>6.256000000000002</v>
@@ -8031,7 +8053,7 @@
         <v>5.720000000000003</v>
       </c>
       <c r="K153" t="n">
-        <v>-10.71428571428565</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L153" t="n">
         <v>6.241000000000001</v>
@@ -8082,7 +8104,7 @@
         <v>5.730000000000003</v>
       </c>
       <c r="K154" t="n">
-        <v>-7.142857142857154</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L154" t="n">
         <v>6.237000000000002</v>
@@ -8133,7 +8155,7 @@
         <v>5.730000000000003</v>
       </c>
       <c r="K155" t="n">
-        <v>-7.142857142857154</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L155" t="n">
         <v>6.235000000000001</v>
@@ -8184,7 +8206,7 @@
         <v>5.780000000000003</v>
       </c>
       <c r="K156" t="n">
-        <v>-13.20754716981139</v>
+        <v>12.00000000000014</v>
       </c>
       <c r="L156" t="n">
         <v>6.238000000000001</v>
@@ -8235,7 +8257,7 @@
         <v>5.870000000000003</v>
       </c>
       <c r="K157" t="n">
-        <v>-34.48275862068974</v>
+        <v>-17.64705882352935</v>
       </c>
       <c r="L157" t="n">
         <v>6.232000000000001</v>
@@ -8286,7 +8308,7 @@
         <v>5.870000000000003</v>
       </c>
       <c r="K158" t="n">
-        <v>-34.48275862068974</v>
+        <v>-9.677419354838802</v>
       </c>
       <c r="L158" t="n">
         <v>6.226000000000001</v>
@@ -8337,7 +8359,7 @@
         <v>5.900000000000003</v>
       </c>
       <c r="K159" t="n">
-        <v>-27.86885245901641</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>6.226000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>5.950000000000003</v>
       </c>
       <c r="K160" t="n">
-        <v>-16.92307692307687</v>
+        <v>37.50000000000011</v>
       </c>
       <c r="L160" t="n">
         <v>6.231</v>
@@ -8439,7 +8461,7 @@
         <v>5.960000000000004</v>
       </c>
       <c r="K161" t="n">
-        <v>-14.28571428571441</v>
+        <v>11.99999999999974</v>
       </c>
       <c r="L161" t="n">
         <v>6.242</v>
@@ -8490,7 +8512,7 @@
         <v>5.990000000000003</v>
       </c>
       <c r="K162" t="n">
-        <v>-14.28571428571428</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L162" t="n">
         <v>6.241999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>5.990000000000003</v>
       </c>
       <c r="K163" t="n">
-        <v>-24.13793103448274</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>6.242999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>6.070000000000003</v>
       </c>
       <c r="K164" t="n">
-        <v>7.142857142857154</v>
+        <v>23.52941176470591</v>
       </c>
       <c r="L164" t="n">
         <v>6.250999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>6.070000000000003</v>
       </c>
       <c r="K165" t="n">
-        <v>11.11111111111122</v>
+        <v>10.34482758620698</v>
       </c>
       <c r="L165" t="n">
         <v>6.258999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>6.070000000000003</v>
       </c>
       <c r="K166" t="n">
-        <v>11.11111111111122</v>
+        <v>60</v>
       </c>
       <c r="L166" t="n">
         <v>6.262</v>
@@ -8745,7 +8767,7 @@
         <v>6.090000000000003</v>
       </c>
       <c r="K167" t="n">
-        <v>14.28571428571433</v>
+        <v>63.63636363636355</v>
       </c>
       <c r="L167" t="n">
         <v>6.275999999999999</v>
@@ -8796,7 +8818,7 @@
         <v>6.090000000000003</v>
       </c>
       <c r="K168" t="n">
-        <v>14.28571428571433</v>
+        <v>57.89473684210511</v>
       </c>
       <c r="L168" t="n">
         <v>6.289999999999999</v>
@@ -8847,7 +8869,7 @@
         <v>6.280000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>-11.11111111111114</v>
+        <v>-39.39393939393946</v>
       </c>
       <c r="L169" t="n">
         <v>6.281999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>6.300000000000002</v>
       </c>
       <c r="K170" t="n">
-        <v>-8.108108108108192</v>
+        <v>-29.41176470588242</v>
       </c>
       <c r="L170" t="n">
         <v>6.270999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>6.300000000000002</v>
       </c>
       <c r="K171" t="n">
-        <v>1.492537313432808</v>
+        <v>-22.58064516129051</v>
       </c>
       <c r="L171" t="n">
         <v>6.261</v>
@@ -9000,7 +9022,7 @@
         <v>6.360000000000002</v>
       </c>
       <c r="K172" t="n">
-        <v>-1.538461538461509</v>
+        <v>-2.702702702702651</v>
       </c>
       <c r="L172" t="n">
         <v>6.26</v>
@@ -9051,7 +9073,7 @@
         <v>6.360000000000002</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L173" t="n">
         <v>6.258999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>6.360000000000002</v>
       </c>
       <c r="K174" t="n">
-        <v>-1.587301587301556</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L174" t="n">
         <v>6.249999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>6.420000000000002</v>
       </c>
       <c r="K175" t="n">
-        <v>7.246376811594192</v>
+        <v>-8.571428571428672</v>
       </c>
       <c r="L175" t="n">
         <v>6.246999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>6.420000000000002</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>-15.15151515151513</v>
       </c>
       <c r="L176" t="n">
         <v>6.243999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>6.520000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>-1.538461538461509</v>
+        <v>-34.88372093023253</v>
       </c>
       <c r="L177" t="n">
         <v>6.228999999999999</v>
@@ -9306,7 +9328,7 @@
         <v>6.550000000000002</v>
       </c>
       <c r="K178" t="n">
-        <v>-5.882352941176486</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L178" t="n">
         <v>6.210999999999999</v>
@@ -9357,7 +9379,7 @@
         <v>6.660000000000001</v>
       </c>
       <c r="K179" t="n">
-        <v>5.263157894736744</v>
+        <v>27.77777777777772</v>
       </c>
       <c r="L179" t="n">
         <v>6.222999999999998</v>
@@ -9408,7 +9430,7 @@
         <v>6.670000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>-2.77777777777785</v>
+        <v>24.32432432432434</v>
       </c>
       <c r="L180" t="n">
         <v>6.231999999999998</v>
@@ -9459,7 +9481,7 @@
         <v>6.750000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>-11.39240506329116</v>
+        <v>-12.82051282051304</v>
       </c>
       <c r="L181" t="n">
         <v>6.232999999999997</v>
@@ -9510,7 +9532,7 @@
         <v>6.760000000000002</v>
       </c>
       <c r="K182" t="n">
-        <v>-6.493506493506482</v>
+        <v>-10.00000000000002</v>
       </c>
       <c r="L182" t="n">
         <v>6.228999999999997</v>
@@ -9561,7 +9583,7 @@
         <v>6.820000000000001</v>
       </c>
       <c r="K183" t="n">
-        <v>1.204819277108411</v>
+        <v>4.347826086956438</v>
       </c>
       <c r="L183" t="n">
         <v>6.230999999999996</v>
@@ -9612,7 +9634,7 @@
         <v>6.910000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>-19.04761904761911</v>
+        <v>-26.53061224489797</v>
       </c>
       <c r="L184" t="n">
         <v>6.223999999999995</v>
@@ -9663,7 +9685,7 @@
         <v>6.980000000000001</v>
       </c>
       <c r="K185" t="n">
-        <v>-9.890109890109892</v>
+        <v>-10.71428571428565</v>
       </c>
       <c r="L185" t="n">
         <v>6.217999999999996</v>
@@ -9714,7 +9736,7 @@
         <v>7.040000000000002</v>
       </c>
       <c r="K186" t="n">
-        <v>-15.46391752577325</v>
+        <v>-3.846153846153932</v>
       </c>
       <c r="L186" t="n">
         <v>6.205999999999995</v>
@@ -9765,7 +9787,7 @@
         <v>7.090000000000002</v>
       </c>
       <c r="K187" t="n">
-        <v>-12.00000000000002</v>
+        <v>11.11111111111104</v>
       </c>
       <c r="L187" t="n">
         <v>6.208999999999996</v>
@@ -9816,7 +9838,7 @@
         <v>7.140000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>-16.1904761904762</v>
+        <v>-20.83333333333324</v>
       </c>
       <c r="L188" t="n">
         <v>6.209999999999996</v>
@@ -9867,7 +9889,7 @@
         <v>7.150000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>3.448275862068896</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L189" t="n">
         <v>6.200999999999998</v>
@@ -9918,7 +9940,7 @@
         <v>7.210000000000002</v>
       </c>
       <c r="K190" t="n">
-        <v>7.692307692307722</v>
+        <v>13.04347826086965</v>
       </c>
       <c r="L190" t="n">
         <v>6.198999999999997</v>
@@ -9969,7 +9991,7 @@
         <v>7.210000000000002</v>
       </c>
       <c r="K191" t="n">
-        <v>7.692307692307722</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L191" t="n">
         <v>6.204999999999997</v>
@@ -10020,7 +10042,7 @@
         <v>7.250000000000002</v>
       </c>
       <c r="K192" t="n">
-        <v>5.617977528089869</v>
+        <v>6.97674418604656</v>
       </c>
       <c r="L192" t="n">
         <v>6.213999999999997</v>
@@ -10071,7 +10093,7 @@
         <v>7.310000000000002</v>
       </c>
       <c r="K193" t="n">
-        <v>-1.052631578947439</v>
+        <v>14.99999999999985</v>
       </c>
       <c r="L193" t="n">
         <v>6.210999999999997</v>
@@ -10122,7 +10144,7 @@
         <v>7.310000000000002</v>
       </c>
       <c r="K194" t="n">
-        <v>-1.052631578947439</v>
+        <v>-3.030303030303226</v>
       </c>
       <c r="L194" t="n">
         <v>6.216999999999997</v>
@@ -10173,7 +10195,7 @@
         <v>7.330000000000002</v>
       </c>
       <c r="K195" t="n">
-        <v>-9.890109890109873</v>
+        <v>10.34482758620698</v>
       </c>
       <c r="L195" t="n">
         <v>6.213999999999997</v>
@@ -10224,7 +10246,7 @@
         <v>7.400000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>-2.04081632653066</v>
+        <v>16.12903225806448</v>
       </c>
       <c r="L196" t="n">
         <v>6.223999999999997</v>
@@ -10275,7 +10297,7 @@
         <v>7.48</v>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>5.882352941176625</v>
       </c>
       <c r="L197" t="n">
         <v>6.220999999999997</v>
@@ -10326,7 +10348,7 @@
         <v>7.500000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>1.052631578947347</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L198" t="n">
         <v>6.220999999999997</v>
@@ -10377,7 +10399,7 @@
         <v>7.52</v>
       </c>
       <c r="K199" t="n">
-        <v>-13.95348837209294</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L199" t="n">
         <v>6.217999999999997</v>
@@ -10428,7 +10450,7 @@
         <v>7.52</v>
       </c>
       <c r="K200" t="n">
-        <v>-12.94117647058817</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L200" t="n">
         <v>6.208999999999997</v>
@@ -10479,7 +10501,7 @@
         <v>7.52</v>
       </c>
       <c r="K201" t="n">
-        <v>-3.896103896103816</v>
+        <v>-48.14814814814834</v>
       </c>
       <c r="L201" t="n">
         <v>6.199999999999997</v>
@@ -10530,7 +10552,7 @@
         <v>7.58</v>
       </c>
       <c r="K202" t="n">
-        <v>2.439024390243855</v>
+        <v>-3.703703703703655</v>
       </c>
       <c r="L202" t="n">
         <v>6.192999999999996</v>
@@ -10581,7 +10603,7 @@
         <v>7.59</v>
       </c>
       <c r="K203" t="n">
-        <v>-6.493506493506482</v>
+        <v>-7.142857142857053</v>
       </c>
       <c r="L203" t="n">
         <v>6.190999999999997</v>
@@ -10632,7 +10654,7 @@
         <v>7.59</v>
       </c>
       <c r="K204" t="n">
-        <v>5.882352941176486</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
         <v>6.188999999999997</v>
@@ -10683,7 +10705,7 @@
         <v>7.59</v>
       </c>
       <c r="K205" t="n">
-        <v>-4.918032786885298</v>
+        <v>-36.84210526315785</v>
       </c>
       <c r="L205" t="n">
         <v>6.188999999999997</v>
@@ -10734,7 +10756,7 @@
         <v>7.59</v>
       </c>
       <c r="K206" t="n">
-        <v>5.454545454545519</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L206" t="n">
         <v>6.181999999999998</v>
@@ -10785,7 +10807,7 @@
         <v>7.63</v>
       </c>
       <c r="K207" t="n">
-        <v>-11.11111111111108</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L207" t="n">
         <v>6.178999999999998</v>
@@ -10836,7 +10858,7 @@
         <v>7.63</v>
       </c>
       <c r="K208" t="n">
-        <v>-2.040816326530575</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L208" t="n">
         <v>6.177999999999997</v>
@@ -10887,7 +10909,7 @@
         <v>7.63</v>
       </c>
       <c r="K209" t="n">
-        <v>-4.16666666666659</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L209" t="n">
         <v>6.178999999999997</v>
@@ -10938,7 +10960,7 @@
         <v>7.67</v>
       </c>
       <c r="K210" t="n">
-        <v>-8.695652173913086</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L210" t="n">
         <v>6.183999999999997</v>
@@ -10989,7 +11011,7 @@
         <v>7.76</v>
       </c>
       <c r="K211" t="n">
-        <v>-23.6363636363637</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L211" t="n">
         <v>6.179999999999998</v>
@@ -11040,7 +11062,7 @@
         <v>7.84</v>
       </c>
       <c r="K212" t="n">
-        <v>-15.25423728813562</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L212" t="n">
         <v>6.177999999999998</v>
@@ -11091,7 +11113,7 @@
         <v>7.930000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>-19.35483870967749</v>
+        <v>-29.41176470588244</v>
       </c>
       <c r="L213" t="n">
         <v>6.167999999999997</v>
@@ -11142,7 +11164,7 @@
         <v>7.95</v>
       </c>
       <c r="K214" t="n">
-        <v>-21.87500000000002</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>6.155999999999997</v>
@@ -11193,7 +11215,7 @@
         <v>8.01</v>
       </c>
       <c r="K215" t="n">
-        <v>-8.823529411764806</v>
+        <v>-14.28571428571441</v>
       </c>
       <c r="L215" t="n">
         <v>6.149999999999997</v>
@@ -11244,7 +11266,7 @@
         <v>8.02</v>
       </c>
       <c r="K216" t="n">
-        <v>-19.35483870967735</v>
+        <v>-2.564102564102511</v>
       </c>
       <c r="L216" t="n">
         <v>6.144999999999998</v>
@@ -11295,7 +11317,7 @@
         <v>8.08</v>
       </c>
       <c r="K217" t="n">
-        <v>-16.66666666666677</v>
+        <v>-15.55555555555561</v>
       </c>
       <c r="L217" t="n">
         <v>6.137999999999998</v>
@@ -11346,7 +11368,7 @@
         <v>8.120000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>-6.45161290322581</v>
+        <v>-6.122448979591874</v>
       </c>
       <c r="L218" t="n">
         <v>6.134999999999998</v>
@@ -11397,7 +11419,7 @@
         <v>8.120000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>-3.333333333333408</v>
+        <v>-15.55555555555558</v>
       </c>
       <c r="L219" t="n">
         <v>6.131999999999998</v>
@@ -11448,7 +11470,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>0</v>
+        <v>10.52631578947367</v>
       </c>
       <c r="L220" t="n">
         <v>6.126999999999998</v>
@@ -11499,7 +11521,7 @@
         <v>8.16</v>
       </c>
       <c r="K221" t="n">
-        <v>3.124999999999935</v>
+        <v>-6.250000000000139</v>
       </c>
       <c r="L221" t="n">
         <v>6.132999999999998</v>
@@ -11550,7 +11572,7 @@
         <v>8.379999999999999</v>
       </c>
       <c r="K222" t="n">
-        <v>-32.50000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>6.108999999999999</v>
@@ -11601,7 +11623,7 @@
         <v>8.529999999999998</v>
       </c>
       <c r="K223" t="n">
-        <v>-10.63829787234051</v>
+        <v>3.448275862068907</v>
       </c>
       <c r="L223" t="n">
         <v>6.108999999999998</v>
@@ -11652,7 +11674,7 @@
         <v>8.549999999999997</v>
       </c>
       <c r="K224" t="n">
-        <v>-12.50000000000005</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L224" t="n">
         <v>6.108999999999999</v>
@@ -11703,7 +11725,7 @@
         <v>8.559999999999997</v>
       </c>
       <c r="K225" t="n">
-        <v>-13.40206185567013</v>
+        <v>-14.8148148148149</v>
       </c>
       <c r="L225" t="n">
         <v>6.101999999999999</v>
@@ -11754,7 +11776,7 @@
         <v>8.559999999999997</v>
       </c>
       <c r="K226" t="n">
-        <v>-13.40206185567013</v>
+        <v>-4.166666666666605</v>
       </c>
       <c r="L226" t="n">
         <v>6.094</v>
@@ -11805,7 +11827,7 @@
         <v>8.559999999999997</v>
       </c>
       <c r="K227" t="n">
-        <v>-9.677419354838724</v>
+        <v>-13.63636363636367</v>
       </c>
       <c r="L227" t="n">
         <v>6.092000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>8.579999999999997</v>
       </c>
       <c r="K228" t="n">
-        <v>-7.368421052631636</v>
+        <v>-8.695652173913135</v>
       </c>
       <c r="L228" t="n">
         <v>6.088</v>
@@ -11907,7 +11929,7 @@
         <v>8.599999999999996</v>
       </c>
       <c r="K229" t="n">
-        <v>-9.278350515463938</v>
+        <v>-17.39130434782627</v>
       </c>
       <c r="L229" t="n">
         <v>6.082</v>
@@ -11958,7 +11980,7 @@
         <v>8.619999999999996</v>
       </c>
       <c r="K230" t="n">
-        <v>-11.57894736842114</v>
+        <v>-17.39130434782627</v>
       </c>
       <c r="L230" t="n">
         <v>6.076</v>
@@ -12009,7 +12031,7 @@
         <v>8.629999999999995</v>
       </c>
       <c r="K231" t="n">
-        <v>-1.149425287356405</v>
+        <v>60.00000000000064</v>
       </c>
       <c r="L231" t="n">
         <v>6.069</v>
@@ -12060,7 +12082,7 @@
         <v>8.749999999999995</v>
       </c>
       <c r="K232" t="n">
-        <v>-23.0769230769232</v>
+        <v>-54.54545454545491</v>
       </c>
       <c r="L232" t="n">
         <v>6.072</v>
@@ -12111,7 +12133,7 @@
         <v>8.779999999999994</v>
       </c>
       <c r="K233" t="n">
-        <v>-10.58823529411771</v>
+        <v>-30.43478260869619</v>
       </c>
       <c r="L233" t="n">
         <v>6.063000000000001</v>
@@ -12162,7 +12184,7 @@
         <v>8.789999999999994</v>
       </c>
       <c r="K234" t="n">
-        <v>-7.142857142857256</v>
+        <v>-21.73913043478321</v>
       </c>
       <c r="L234" t="n">
         <v>6.057</v>
@@ -12213,7 +12235,7 @@
         <v>8.859999999999994</v>
       </c>
       <c r="K235" t="n">
-        <v>-5.88235294117649</v>
+        <v>6.666666666666588</v>
       </c>
       <c r="L235" t="n">
         <v>6.059000000000001</v>
@@ -12264,7 +12286,7 @@
         <v>8.889999999999993</v>
       </c>
       <c r="K236" t="n">
-        <v>-3.448275862069018</v>
+        <v>15.15151515151526</v>
       </c>
       <c r="L236" t="n">
         <v>6.064000000000001</v>
@@ -12315,7 +12337,7 @@
         <v>8.939999999999994</v>
       </c>
       <c r="K237" t="n">
-        <v>-2.325581395348804</v>
+        <v>-5.555555555555474</v>
       </c>
       <c r="L237" t="n">
         <v>6.064000000000001</v>
@@ -12366,7 +12388,7 @@
         <v>8.969999999999994</v>
       </c>
       <c r="K238" t="n">
-        <v>-3.529411764705943</v>
+        <v>8.108108108107992</v>
       </c>
       <c r="L238" t="n">
         <v>6.065</v>
@@ -12417,7 +12439,7 @@
         <v>9.009999999999994</v>
       </c>
       <c r="K239" t="n">
-        <v>1.123595505617962</v>
+        <v>12.82051282051281</v>
       </c>
       <c r="L239" t="n">
         <v>6.072000000000001</v>
@@ -12468,7 +12490,7 @@
         <v>9.049999999999994</v>
       </c>
       <c r="K240" t="n">
-        <v>-5.494505494505614</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>6.073</v>
@@ -12519,7 +12541,7 @@
         <v>9.049999999999994</v>
       </c>
       <c r="K241" t="n">
-        <v>-7.865168539325933</v>
+        <v>39.99999999999988</v>
       </c>
       <c r="L241" t="n">
         <v>6.073</v>
@@ -12570,7 +12592,7 @@
         <v>9.109999999999992</v>
       </c>
       <c r="K242" t="n">
-        <v>12.32876712328776</v>
+        <v>9.090909090909213</v>
       </c>
       <c r="L242" t="n">
         <v>6.078999999999999</v>
@@ -12621,7 +12643,7 @@
         <v>9.109999999999992</v>
       </c>
       <c r="K243" t="n">
-        <v>-10.34482758620692</v>
+        <v>6.250000000000173</v>
       </c>
       <c r="L243" t="n">
         <v>6.082</v>
@@ -12672,7 +12694,7 @@
         <v>9.119999999999992</v>
       </c>
       <c r="K244" t="n">
-        <v>-8.77192982456145</v>
+        <v>-23.0769230769231</v>
       </c>
       <c r="L244" t="n">
         <v>6.083</v>
@@ -12723,7 +12745,7 @@
         <v>9.119999999999992</v>
       </c>
       <c r="K245" t="n">
-        <v>-7.142857142857211</v>
+        <v>-39.13043478260887</v>
       </c>
       <c r="L245" t="n">
         <v>6.077</v>
@@ -12774,7 +12796,7 @@
         <v>9.139999999999993</v>
       </c>
       <c r="K246" t="n">
-        <v>-10.34482758620704</v>
+        <v>-30.00000000000036</v>
       </c>
       <c r="L246" t="n">
         <v>6.066000000000001</v>
@@ -12825,7 +12847,7 @@
         <v>9.219999999999994</v>
       </c>
       <c r="K247" t="n">
-        <v>3.030303030302981</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L247" t="n">
         <v>6.068</v>
@@ -12876,7 +12898,7 @@
         <v>9.309999999999993</v>
       </c>
       <c r="K248" t="n">
-        <v>-12.3287671232877</v>
+        <v>-46.66666666666673</v>
       </c>
       <c r="L248" t="n">
         <v>6.058000000000001</v>
@@ -12927,7 +12949,7 @@
         <v>9.329999999999993</v>
       </c>
       <c r="K249" t="n">
-        <v>-12.3287671232877</v>
+        <v>-42.85714285714268</v>
       </c>
       <c r="L249" t="n">
         <v>6.042</v>
@@ -12978,7 +13000,7 @@
         <v>9.389999999999993</v>
       </c>
       <c r="K250" t="n">
-        <v>-6.493506493506489</v>
+        <v>-17.64705882352931</v>
       </c>
       <c r="L250" t="n">
         <v>6.036</v>
@@ -13029,7 +13051,7 @@
         <v>9.399999999999993</v>
       </c>
       <c r="K251" t="n">
-        <v>-6.493506493506489</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L251" t="n">
         <v>6.031000000000001</v>
@@ -13080,7 +13102,7 @@
         <v>9.419999999999993</v>
       </c>
       <c r="K252" t="n">
-        <v>7.462686567164173</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L252" t="n">
         <v>6.03</v>
@@ -13131,7 +13153,7 @@
         <v>9.439999999999992</v>
       </c>
       <c r="K253" t="n">
-        <v>6.060606060606081</v>
+        <v>6.249999999999861</v>
       </c>
       <c r="L253" t="n">
         <v>6.031000000000001</v>
@@ -13182,7 +13204,7 @@
         <v>9.439999999999992</v>
       </c>
       <c r="K254" t="n">
-        <v>4.615384615384664</v>
+        <v>6.249999999999861</v>
       </c>
       <c r="L254" t="n">
         <v>6.033000000000001</v>
@@ -13233,7 +13255,7 @@
         <v>9.489999999999991</v>
       </c>
       <c r="K255" t="n">
-        <v>-14.28571428571433</v>
+        <v>-2.857142857142814</v>
       </c>
       <c r="L255" t="n">
         <v>6.030000000000001</v>
@@ -13284,7 +13306,7 @@
         <v>9.489999999999991</v>
       </c>
       <c r="K256" t="n">
-        <v>-20.00000000000009</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L256" t="n">
         <v>6.029000000000002</v>
@@ -13335,7 +13357,7 @@
         <v>9.489999999999991</v>
       </c>
       <c r="K257" t="n">
-        <v>-12.72727272727285</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>6.020000000000001</v>
@@ -13386,7 +13408,7 @@
         <v>9.539999999999992</v>
       </c>
       <c r="K258" t="n">
-        <v>-26.31578947368419</v>
+        <v>-14.28571428571447</v>
       </c>
       <c r="L258" t="n">
         <v>6.015000000000002</v>
@@ -13437,7 +13459,7 @@
         <v>9.539999999999992</v>
       </c>
       <c r="K259" t="n">
-        <v>-35.84905660377365</v>
+        <v>-60.00000000000048</v>
       </c>
       <c r="L259" t="n">
         <v>6.012000000000002</v>
@@ -13488,7 +13510,7 @@
         <v>9.539999999999992</v>
       </c>
       <c r="K260" t="n">
-        <v>-30.61224489795917</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L260" t="n">
         <v>6.003000000000002</v>
@@ -13539,7 +13561,7 @@
         <v>9.539999999999992</v>
       </c>
       <c r="K261" t="n">
-        <v>-30.61224489795917</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L261" t="n">
         <v>5.993000000000002</v>
@@ -13590,7 +13612,7 @@
         <v>9.539999999999992</v>
       </c>
       <c r="K262" t="n">
-        <v>-20.93023255813952</v>
+        <v>-100</v>
       </c>
       <c r="L262" t="n">
         <v>5.985000000000002</v>
@@ -13641,7 +13663,7 @@
         <v>9.539999999999992</v>
       </c>
       <c r="K263" t="n">
-        <v>-20.93023255813952</v>
+        <v>-100</v>
       </c>
       <c r="L263" t="n">
         <v>5.975000000000003</v>
@@ -13692,7 +13714,7 @@
         <v>9.579999999999991</v>
       </c>
       <c r="K264" t="n">
-        <v>-8.695652173913068</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L264" t="n">
         <v>5.969000000000003</v>
@@ -13743,7 +13765,7 @@
         <v>9.579999999999991</v>
       </c>
       <c r="K265" t="n">
-        <v>-8.695652173913068</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L265" t="n">
         <v>5.968000000000002</v>
@@ -13794,7 +13816,7 @@
         <v>9.589999999999991</v>
       </c>
       <c r="K266" t="n">
-        <v>-2.222222222222187</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>5.968000000000002</v>
@@ -13845,7 +13867,7 @@
         <v>9.609999999999991</v>
       </c>
       <c r="K267" t="n">
-        <v>-28.20512820512828</v>
+        <v>42.85714285714413</v>
       </c>
       <c r="L267" t="n">
         <v>5.966000000000003</v>
@@ -13896,7 +13918,7 @@
         <v>9.61999999999999</v>
       </c>
       <c r="K268" t="n">
-        <v>-9.677419354838886</v>
+        <v>25</v>
       </c>
       <c r="L268" t="n">
         <v>5.968000000000002</v>
@@ -13947,7 +13969,7 @@
         <v>9.649999999999991</v>
       </c>
       <c r="K269" t="n">
-        <v>6.249999999999896</v>
+        <v>45.45454545454552</v>
       </c>
       <c r="L269" t="n">
         <v>5.973000000000002</v>
@@ -13998,7 +14020,7 @@
         <v>9.689999999999991</v>
       </c>
       <c r="K270" t="n">
-        <v>-26.66666666666694</v>
+        <v>6.666666666666588</v>
       </c>
       <c r="L270" t="n">
         <v>5.974000000000001</v>
@@ -14049,7 +14071,7 @@
         <v>9.72999999999999</v>
       </c>
       <c r="K271" t="n">
-        <v>-15.15151515151526</v>
+        <v>26.31578947368443</v>
       </c>
       <c r="L271" t="n">
         <v>5.979000000000001</v>
@@ -14100,7 +14122,7 @@
         <v>9.72999999999999</v>
       </c>
       <c r="K272" t="n">
-        <v>-9.677419354838886</v>
+        <v>26.31578947368443</v>
       </c>
       <c r="L272" t="n">
         <v>5.984</v>
@@ -14151,7 +14173,7 @@
         <v>9.77999999999999</v>
       </c>
       <c r="K273" t="n">
-        <v>-29.41176470588242</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L273" t="n">
         <v>5.984</v>
@@ -14202,7 +14224,7 @@
         <v>9.829999999999991</v>
       </c>
       <c r="K274" t="n">
-        <v>-12.82051282051281</v>
+        <v>3.999999999999915</v>
       </c>
       <c r="L274" t="n">
         <v>5.985</v>
@@ -14253,7 +14275,7 @@
         <v>9.859999999999992</v>
       </c>
       <c r="K275" t="n">
-        <v>-8.108108108108153</v>
+        <v>-11.11111111111115</v>
       </c>
       <c r="L275" t="n">
         <v>5.983000000000001</v>
@@ -14304,7 +14326,7 @@
         <v>9.879999999999992</v>
       </c>
       <c r="K276" t="n">
-        <v>-2.564102564102506</v>
+        <v>3.703703703703606</v>
       </c>
       <c r="L276" t="n">
         <v>5.982000000000001</v>
@@ -14355,7 +14377,7 @@
         <v>9.889999999999992</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>11.11111111111115</v>
       </c>
       <c r="L277" t="n">
         <v>5.984</v>
@@ -14406,7 +14428,7 @@
         <v>9.889999999999992</v>
       </c>
       <c r="K278" t="n">
-        <v>14.28571428571425</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>5.987</v>
@@ -14457,7 +14479,7 @@
         <v>9.889999999999992</v>
       </c>
       <c r="K279" t="n">
-        <v>14.28571428571425</v>
+        <v>19.99999999999991</v>
       </c>
       <c r="L279" t="n">
         <v>5.987</v>
@@ -14508,7 +14530,7 @@
         <v>9.889999999999992</v>
       </c>
       <c r="K280" t="n">
-        <v>14.28571428571425</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>5.991000000000001</v>
@@ -14559,7 +14581,7 @@
         <v>9.899999999999991</v>
       </c>
       <c r="K281" t="n">
-        <v>16.66666666666659</v>
+        <v>5.882352941176286</v>
       </c>
       <c r="L281" t="n">
         <v>5.992</v>
@@ -14610,7 +14632,7 @@
         <v>9.909999999999991</v>
       </c>
       <c r="K282" t="n">
-        <v>18.91891891891879</v>
+        <v>53.84615384615306</v>
       </c>
       <c r="L282" t="n">
         <v>5.994</v>
@@ -14661,7 +14683,7 @@
         <v>9.919999999999991</v>
       </c>
       <c r="K283" t="n">
-        <v>21.05263157894744</v>
+        <v>33.33333333333366</v>
       </c>
       <c r="L283" t="n">
         <v>6.002</v>
@@ -14712,7 +14734,7 @@
         <v>9.919999999999991</v>
       </c>
       <c r="K284" t="n">
-        <v>11.76470588235296</v>
+        <v>100.000000000003</v>
       </c>
       <c r="L284" t="n">
         <v>6.005</v>
@@ -14763,7 +14785,7 @@
         <v>9.919999999999991</v>
       </c>
       <c r="K285" t="n">
-        <v>11.76470588235296</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L285" t="n">
         <v>6.011</v>
@@ -14865,7 +14887,7 @@
         <v>9.949999999999992</v>
       </c>
       <c r="K287" t="n">
-        <v>5.882352941176317</v>
+        <v>0</v>
       </c>
       <c r="L287" t="n">
         <v>6.012</v>
@@ -14916,7 +14938,7 @@
         <v>9.969999999999992</v>
       </c>
       <c r="K288" t="n">
-        <v>14.28571428571418</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L288" t="n">
         <v>6.014</v>
@@ -14967,7 +14989,7 @@
         <v>10.01999999999999</v>
       </c>
       <c r="K289" t="n">
-        <v>-8.108108108108153</v>
+        <v>-23.07692307692313</v>
       </c>
       <c r="L289" t="n">
         <v>6.011</v>
@@ -15018,7 +15040,7 @@
         <v>10.03999999999999</v>
       </c>
       <c r="K290" t="n">
-        <v>-2.857142857142784</v>
+        <v>-42.85714285714241</v>
       </c>
       <c r="L290" t="n">
         <v>6.006</v>
@@ -15069,7 +15091,7 @@
         <v>10.08999999999999</v>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
+        <v>-11.11111111111078</v>
       </c>
       <c r="L291" t="n">
         <v>6.005000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>10.08999999999999</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>-17.64705882352938</v>
       </c>
       <c r="L292" t="n">
         <v>6.003000000000002</v>
@@ -15171,7 +15193,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>18.74999999999976</v>
+        <v>-11.11111111111128</v>
       </c>
       <c r="L293" t="n">
         <v>6.001000000000002</v>
@@ -15222,7 +15244,7 @@
         <v>10.10999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>-15.78947368421055</v>
       </c>
       <c r="L294" t="n">
         <v>5.998000000000002</v>
@@ -15273,7 +15295,7 @@
         <v>10.12999999999999</v>
       </c>
       <c r="K295" t="n">
-        <v>18.51851851851848</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L295" t="n">
         <v>5.997000000000002</v>
@@ -15324,7 +15346,7 @@
         <v>10.15999999999999</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L296" t="n">
         <v>5.996</v>
@@ -15375,7 +15397,7 @@
         <v>10.16999999999999</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L297" t="n">
         <v>5.996</v>
@@ -15426,7 +15448,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K298" t="n">
-        <v>-9.677419354838774</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>5.991000000000001</v>
@@ -15477,7 +15499,7 @@
         <v>10.22999999999999</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>26.31578947368394</v>
       </c>
       <c r="L299" t="n">
         <v>5.994000000000002</v>
@@ -15528,7 +15550,7 @@
         <v>10.23999999999999</v>
       </c>
       <c r="K300" t="n">
-        <v>2.857142857142784</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L300" t="n">
         <v>6.000000000000002</v>
@@ -15579,7 +15601,7 @@
         <v>10.26999999999999</v>
       </c>
       <c r="K301" t="n">
-        <v>-8.108108108107913</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L301" t="n">
         <v>5.998000000000002</v>
@@ -15630,7 +15652,7 @@
         <v>10.27999999999999</v>
       </c>
       <c r="K302" t="n">
-        <v>-13.51351351351336</v>
+        <v>-22.22222222222206</v>
       </c>
       <c r="L302" t="n">
         <v>5.995000000000002</v>
@@ -15681,7 +15703,7 @@
         <v>10.31999999999999</v>
       </c>
       <c r="K303" t="n">
-        <v>-5.000000000000089</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L303" t="n">
         <v>5.995000000000003</v>
@@ -15732,7 +15754,7 @@
         <v>10.31999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>-5.000000000000089</v>
+        <v>-5.263157894736695</v>
       </c>
       <c r="L304" t="n">
         <v>5.996000000000002</v>
@@ -15783,7 +15805,7 @@
         <v>10.32999999999999</v>
       </c>
       <c r="K305" t="n">
-        <v>-7.317073170731733</v>
+        <v>5.882352941176286</v>
       </c>
       <c r="L305" t="n">
         <v>5.994000000000002</v>
@@ -15885,7 +15907,7 @@
         <v>10.33999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>2.564102564102506</v>
+        <v>28.57142857142848</v>
       </c>
       <c r="L307" t="n">
         <v>5.996000000000002</v>
@@ -15936,7 +15958,7 @@
         <v>10.34999999999999</v>
       </c>
       <c r="K308" t="n">
-        <v>-5.263157894736719</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>5.999000000000002</v>
@@ -15987,7 +16009,7 @@
         <v>10.34999999999999</v>
       </c>
       <c r="K309" t="n">
-        <v>9.090909090909165</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L309" t="n">
         <v>5.999000000000002</v>
@@ -16038,7 +16060,7 @@
         <v>10.34999999999999</v>
       </c>
       <c r="K310" t="n">
-        <v>16.12903225806443</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L310" t="n">
         <v>5.998000000000003</v>
@@ -16089,7 +16111,7 @@
         <v>10.35999999999999</v>
       </c>
       <c r="K311" t="n">
-        <v>-3.70370370370363</v>
+        <v>25.00000000000111</v>
       </c>
       <c r="L311" t="n">
         <v>5.999000000000002</v>
@@ -16140,7 +16162,7 @@
         <v>10.36999999999999</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L312" t="n">
         <v>6.002000000000002</v>
@@ -16191,7 +16213,7 @@
         <v>10.36999999999999</v>
       </c>
       <c r="K313" t="n">
-        <v>-3.70370370370363</v>
+        <v>-20</v>
       </c>
       <c r="L313" t="n">
         <v>6.001000000000003</v>
@@ -16242,7 +16264,7 @@
         <v>10.38999999999999</v>
       </c>
       <c r="K314" t="n">
-        <v>-7.142857142857006</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L314" t="n">
         <v>5.998000000000003</v>
@@ -16293,7 +16315,7 @@
         <v>10.42999999999999</v>
       </c>
       <c r="K315" t="n">
-        <v>-26.66666666666633</v>
+        <v>-59.99999999999982</v>
       </c>
       <c r="L315" t="n">
         <v>5.992000000000003</v>
@@ -16344,7 +16366,7 @@
         <v>10.46999999999999</v>
       </c>
       <c r="K316" t="n">
-        <v>-29.03225806451604</v>
+        <v>-84.61538461538483</v>
       </c>
       <c r="L316" t="n">
         <v>5.982000000000004</v>
@@ -16395,7 +16417,7 @@
         <v>10.48999999999999</v>
       </c>
       <c r="K317" t="n">
-        <v>-37.5</v>
+        <v>-85.71428571428653</v>
       </c>
       <c r="L317" t="n">
         <v>5.969000000000003</v>
@@ -16446,7 +16468,7 @@
         <v>10.55999999999999</v>
       </c>
       <c r="K318" t="n">
-        <v>-5.555555555555445</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L318" t="n">
         <v>5.964000000000003</v>
@@ -16497,7 +16519,7 @@
         <v>10.55999999999999</v>
       </c>
       <c r="K319" t="n">
-        <v>-15.15151515151518</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L319" t="n">
         <v>5.959000000000003</v>
@@ -16548,7 +16570,7 @@
         <v>10.57999999999999</v>
       </c>
       <c r="K320" t="n">
-        <v>-11.76470588235302</v>
+        <v>-9.090909090909348</v>
       </c>
       <c r="L320" t="n">
         <v>5.956000000000003</v>
@@ -16599,7 +16621,7 @@
         <v>10.57999999999999</v>
       </c>
       <c r="K321" t="n">
-        <v>-3.225806451613134</v>
+        <v>-14.28571428571447</v>
       </c>
       <c r="L321" t="n">
         <v>5.954000000000002</v>
@@ -16650,7 +16672,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K322" t="n">
-        <v>-6.249999999999931</v>
+        <v>-21.73913043478266</v>
       </c>
       <c r="L322" t="n">
         <v>5.949000000000003</v>
@@ -16701,7 +16723,7 @@
         <v>10.67999999999999</v>
       </c>
       <c r="K323" t="n">
-        <v>-38.88888888888906</v>
+        <v>-37.93103448275884</v>
       </c>
       <c r="L323" t="n">
         <v>5.936000000000003</v>
@@ -16752,7 +16774,7 @@
         <v>10.73999999999999</v>
       </c>
       <c r="K324" t="n">
-        <v>-19.04761904761915</v>
+        <v>-3.225806451613134</v>
       </c>
       <c r="L324" t="n">
         <v>5.931000000000002</v>
@@ -16803,7 +16825,7 @@
         <v>10.73999999999999</v>
       </c>
       <c r="K325" t="n">
-        <v>-17.07317073170745</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L325" t="n">
         <v>5.930000000000001</v>
@@ -16854,7 +16876,7 @@
         <v>10.73999999999999</v>
       </c>
       <c r="K326" t="n">
-        <v>-17.07317073170745</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L326" t="n">
         <v>5.933000000000002</v>
@@ -16905,7 +16927,7 @@
         <v>10.77999999999999</v>
       </c>
       <c r="K327" t="n">
-        <v>-9.090909090909145</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L327" t="n">
         <v>5.942000000000002</v>
@@ -16956,7 +16978,7 @@
         <v>10.81999999999999</v>
       </c>
       <c r="K328" t="n">
-        <v>-14.89361702127675</v>
+        <v>-7.692307692307929</v>
       </c>
       <c r="L328" t="n">
         <v>5.940000000000002</v>
@@ -17007,7 +17029,7 @@
         <v>10.85999999999999</v>
       </c>
       <c r="K329" t="n">
-        <v>-5.882352941176562</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>5.942000000000002</v>
@@ -17058,7 +17080,7 @@
         <v>10.86999999999999</v>
       </c>
       <c r="K330" t="n">
-        <v>-3.846153846153781</v>
+        <v>3.448275862069208</v>
       </c>
       <c r="L330" t="n">
         <v>5.943000000000002</v>
@@ -17109,7 +17131,7 @@
         <v>10.86999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>-1.960784313725456</v>
+        <v>11.11111111111122</v>
       </c>
       <c r="L331" t="n">
         <v>5.944000000000003</v>
@@ -17160,7 +17182,7 @@
         <v>10.90999999999999</v>
       </c>
       <c r="K332" t="n">
-        <v>3.703703703703643</v>
+        <v>65.21739130434798</v>
       </c>
       <c r="L332" t="n">
         <v>5.951000000000002</v>
@@ -17211,7 +17233,7 @@
         <v>10.90999999999999</v>
       </c>
       <c r="K333" t="n">
-        <v>3.703703703703643</v>
+        <v>52.94117647058872</v>
       </c>
       <c r="L333" t="n">
         <v>5.966000000000002</v>
@@ -17262,7 +17284,7 @@
         <v>10.93999999999999</v>
       </c>
       <c r="K334" t="n">
-        <v>12.72727272727264</v>
+        <v>60.00000000000026</v>
       </c>
       <c r="L334" t="n">
         <v>5.978000000000002</v>
@@ -17313,7 +17335,7 @@
         <v>10.93999999999999</v>
       </c>
       <c r="K335" t="n">
-        <v>21.56862745098037</v>
+        <v>60.00000000000026</v>
       </c>
       <c r="L335" t="n">
         <v>5.990000000000003</v>
@@ -17364,7 +17386,7 @@
         <v>10.94999999999999</v>
       </c>
       <c r="K336" t="n">
-        <v>33.33333333333327</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L336" t="n">
         <v>6.003000000000002</v>
@@ -17415,7 +17437,7 @@
         <v>10.94999999999999</v>
       </c>
       <c r="K337" t="n">
-        <v>39.13043478260872</v>
+        <v>99.99999999999932</v>
       </c>
       <c r="L337" t="n">
         <v>6.012000000000002</v>
@@ -17466,7 +17488,7 @@
         <v>10.97999999999999</v>
       </c>
       <c r="K338" t="n">
-        <v>33.33333333333341</v>
+        <v>99.99999999999926</v>
       </c>
       <c r="L338" t="n">
         <v>6.028000000000002</v>
@@ -17517,7 +17539,7 @@
         <v>11.01999999999999</v>
       </c>
       <c r="K339" t="n">
-        <v>21.73913043478266</v>
+        <v>46.66666666666671</v>
       </c>
       <c r="L339" t="n">
         <v>6.036000000000003</v>
@@ -17568,7 +17590,7 @@
         <v>11.03999999999999</v>
       </c>
       <c r="K340" t="n">
-        <v>21.73913043478285</v>
+        <v>52.94117647058872</v>
       </c>
       <c r="L340" t="n">
         <v>6.045000000000003</v>
@@ -17619,7 +17641,7 @@
         <v>11.05999999999999</v>
       </c>
       <c r="K341" t="n">
-        <v>25.00000000000018</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L341" t="n">
         <v>6.056000000000003</v>
@@ -17670,7 +17692,7 @@
         <v>11.12999999999999</v>
       </c>
       <c r="K342" t="n">
-        <v>13.20754716981127</v>
+        <v>0</v>
       </c>
       <c r="L342" t="n">
         <v>6.056000000000003</v>
@@ -17721,7 +17743,7 @@
         <v>11.18999999999999</v>
       </c>
       <c r="K343" t="n">
-        <v>41.17647058823545</v>
+        <v>12.00000000000018</v>
       </c>
       <c r="L343" t="n">
         <v>6.062000000000003</v>
@@ -17772,7 +17794,7 @@
         <v>11.21999999999999</v>
       </c>
       <c r="K344" t="n">
-        <v>25.00000000000018</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
         <v>6.062000000000003</v>
@@ -17823,7 +17845,7 @@
         <v>11.22999999999999</v>
       </c>
       <c r="K345" t="n">
-        <v>26.53061224489812</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>6.063000000000004</v>
@@ -17874,7 +17896,7 @@
         <v>11.23999999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>24.00000000000019</v>
+        <v>-3.448275862068923</v>
       </c>
       <c r="L346" t="n">
         <v>6.062000000000003</v>
@@ -17925,7 +17947,7 @@
         <v>11.23999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>17.39130434782621</v>
+        <v>-15.38461538461552</v>
       </c>
       <c r="L347" t="n">
         <v>6.061000000000003</v>
@@ -17976,7 +17998,7 @@
         <v>11.26999999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>33.33333333333346</v>
+        <v>12.0000000000001</v>
       </c>
       <c r="L348" t="n">
         <v>6.060000000000002</v>
@@ -18027,7 +18049,7 @@
         <v>11.28999999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>20.93023255813952</v>
+        <v>-4.00000000000027</v>
       </c>
       <c r="L349" t="n">
         <v>6.061000000000003</v>
@@ -18078,7 +18100,7 @@
         <v>11.31999999999999</v>
       </c>
       <c r="K350" t="n">
-        <v>24.44444444444436</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>6.063000000000003</v>
@@ -18129,7 +18151,7 @@
         <v>11.34999999999999</v>
       </c>
       <c r="K351" t="n">
-        <v>29.16666666666658</v>
+        <v>45.4545454545452</v>
       </c>
       <c r="L351" t="n">
         <v>6.066000000000003</v>
@@ -18180,7 +18202,7 @@
         <v>11.41999999999999</v>
       </c>
       <c r="K352" t="n">
-        <v>5.882352941176501</v>
+        <v>-13.04347826086955</v>
       </c>
       <c r="L352" t="n">
         <v>6.069000000000003</v>
@@ -18231,7 +18253,7 @@
         <v>11.42999999999999</v>
       </c>
       <c r="K353" t="n">
-        <v>7.692307692307679</v>
+        <v>4.761904761904601</v>
       </c>
       <c r="L353" t="n">
         <v>6.067000000000003</v>
@@ -18282,7 +18304,7 @@
         <v>11.46999999999999</v>
       </c>
       <c r="K354" t="n">
-        <v>9.433962264150891</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L354" t="n">
         <v>6.072000000000003</v>
@@ -18333,7 +18355,7 @@
         <v>11.46999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>9.433962264150891</v>
+        <v>21.73913043478215</v>
       </c>
       <c r="L355" t="n">
         <v>6.076000000000002</v>
@@ -18384,7 +18406,7 @@
         <v>11.48999999999999</v>
       </c>
       <c r="K356" t="n">
-        <v>3.703703703703783</v>
+        <v>11.99999999999993</v>
       </c>
       <c r="L356" t="n">
         <v>6.079000000000002</v>
@@ -18435,7 +18457,7 @@
         <v>11.50999999999999</v>
       </c>
       <c r="K357" t="n">
-        <v>7.142857142857142</v>
+        <v>8.333333333333087</v>
       </c>
       <c r="L357" t="n">
         <v>6.084000000000001</v>
@@ -18486,7 +18508,7 @@
         <v>11.54999999999999</v>
       </c>
       <c r="K358" t="n">
-        <v>-5.263157894736883</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>6.082000000000003</v>
@@ -18537,7 +18559,7 @@
         <v>11.55999999999999</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L359" t="n">
         <v>6.081000000000001</v>
@@ -18588,7 +18610,7 @@
         <v>11.58999999999999</v>
       </c>
       <c r="K360" t="n">
-        <v>1.818181818181777</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L360" t="n">
         <v>6.080000000000001</v>
@@ -18639,7 +18661,7 @@
         <v>11.58999999999999</v>
       </c>
       <c r="K361" t="n">
-        <v>-1.886792452830145</v>
+        <v>17.64705882352975</v>
       </c>
       <c r="L361" t="n">
         <v>6.076000000000001</v>
@@ -18690,7 +18712,7 @@
         <v>11.61999999999999</v>
       </c>
       <c r="K362" t="n">
-        <v>6.122448979591863</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L362" t="n">
         <v>6.076000000000002</v>
@@ -18741,7 +18763,7 @@
         <v>11.63999999999999</v>
       </c>
       <c r="K363" t="n">
-        <v>-11.11111111111104</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L363" t="n">
         <v>6.073000000000002</v>
@@ -18792,7 +18814,7 @@
         <v>11.65999999999999</v>
       </c>
       <c r="K364" t="n">
-        <v>-9.090909090909074</v>
+        <v>-47.36842105263207</v>
       </c>
       <c r="L364" t="n">
         <v>6.064000000000002</v>
@@ -18843,7 +18865,7 @@
         <v>11.65999999999999</v>
       </c>
       <c r="K365" t="n">
-        <v>-11.6279069767441</v>
+        <v>-41.17647058823591</v>
       </c>
       <c r="L365" t="n">
         <v>6.055000000000001</v>
@@ -18894,7 +18916,7 @@
         <v>11.72999999999999</v>
       </c>
       <c r="K366" t="n">
-        <v>6.122448979591863</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L366" t="n">
         <v>6.055000000000002</v>
@@ -18945,7 +18967,7 @@
         <v>11.72999999999999</v>
       </c>
       <c r="K367" t="n">
-        <v>6.122448979591863</v>
+        <v>11.11111111111139</v>
       </c>
       <c r="L367" t="n">
         <v>6.053000000000003</v>
@@ -18996,7 +19018,7 @@
         <v>11.72999999999999</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>17.64705882352957</v>
       </c>
       <c r="L368" t="n">
         <v>6.055000000000002</v>
@@ -19047,7 +19069,7 @@
         <v>11.72999999999999</v>
       </c>
       <c r="K369" t="n">
-        <v>4.545454545454637</v>
+        <v>0</v>
       </c>
       <c r="L369" t="n">
         <v>6.058000000000002</v>
@@ -19098,7 +19120,7 @@
         <v>11.75999999999999</v>
       </c>
       <c r="K370" t="n">
-        <v>-9.090909090909074</v>
+        <v>-17.64705882352938</v>
       </c>
       <c r="L370" t="n">
         <v>6.055000000000002</v>
@@ -19149,7 +19171,7 @@
         <v>11.75999999999999</v>
       </c>
       <c r="K371" t="n">
-        <v>-17.07317073170738</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>6.052000000000002</v>
@@ -19200,7 +19222,7 @@
         <v>11.78999999999999</v>
       </c>
       <c r="K372" t="n">
-        <v>8.108108108108153</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L372" t="n">
         <v>6.055000000000002</v>
@@ -19251,7 +19273,7 @@
         <v>11.78999999999999</v>
       </c>
       <c r="K373" t="n">
-        <v>5.555555555555665</v>
+        <v>53.846153846153</v>
       </c>
       <c r="L373" t="n">
         <v>6.060000000000002</v>
@@ -19302,7 +19324,7 @@
         <v>11.78999999999999</v>
       </c>
       <c r="K374" t="n">
-        <v>-6.249999999999861</v>
+        <v>53.846153846153</v>
       </c>
       <c r="L374" t="n">
         <v>6.067000000000002</v>
@@ -19353,7 +19375,7 @@
         <v>11.78999999999999</v>
       </c>
       <c r="K375" t="n">
-        <v>-6.249999999999861</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>6.074000000000003</v>
@@ -19404,7 +19426,7 @@
         <v>11.85999999999999</v>
       </c>
       <c r="K376" t="n">
-        <v>-18.91891891891894</v>
+        <v>-53.846153846153</v>
       </c>
       <c r="L376" t="n">
         <v>6.067000000000003</v>
@@ -19455,7 +19477,7 @@
         <v>11.91999999999999</v>
       </c>
       <c r="K377" t="n">
-        <v>-7.317073170731517</v>
+        <v>-5.263157894736645</v>
       </c>
       <c r="L377" t="n">
         <v>6.066000000000004</v>
@@ -19506,7 +19528,7 @@
         <v>11.94999999999999</v>
       </c>
       <c r="K378" t="n">
-        <v>-4.999999999999867</v>
+        <v>-18.181818181818</v>
       </c>
       <c r="L378" t="n">
         <v>6.062000000000005</v>
@@ -19608,7 +19630,7 @@
         <v>11.97999999999999</v>
       </c>
       <c r="K380" t="n">
-        <v>-2.564102564102483</v>
+        <v>9.0909090909092</v>
       </c>
       <c r="L380" t="n">
         <v>6.061000000000005</v>
@@ -19659,7 +19681,7 @@
         <v>11.97999999999999</v>
       </c>
       <c r="K381" t="n">
-        <v>-2.564102564102483</v>
+        <v>-5.263157894736695</v>
       </c>
       <c r="L381" t="n">
         <v>6.063000000000007</v>
@@ -19710,7 +19732,7 @@
         <v>11.98999999999999</v>
       </c>
       <c r="K382" t="n">
-        <v>8.108108108108114</v>
+        <v>0</v>
       </c>
       <c r="L382" t="n">
         <v>6.063000000000007</v>
@@ -19761,7 +19783,7 @@
         <v>11.98999999999999</v>
       </c>
       <c r="K383" t="n">
-        <v>14.28571428571411</v>
+        <v>0</v>
       </c>
       <c r="L383" t="n">
         <v>6.063000000000007</v>
@@ -19812,7 +19834,7 @@
         <v>12.02999999999999</v>
       </c>
       <c r="K384" t="n">
-        <v>8.108108108108075</v>
+        <v>-16.66666666666654</v>
       </c>
       <c r="L384" t="n">
         <v>6.059000000000007</v>
@@ -19863,7 +19885,7 @@
         <v>12.06</v>
       </c>
       <c r="K385" t="n">
-        <v>14.99999999999991</v>
+        <v>29.99999999999982</v>
       </c>
       <c r="L385" t="n">
         <v>6.058000000000009</v>
@@ -19914,7 +19936,7 @@
         <v>12.06</v>
       </c>
       <c r="K386" t="n">
-        <v>-3.030303030302916</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>6.064000000000009</v>
@@ -19965,7 +19987,7 @@
         <v>12.13</v>
       </c>
       <c r="K387" t="n">
-        <v>-19.99999999999973</v>
+        <v>-22.22222222222184</v>
       </c>
       <c r="L387" t="n">
         <v>6.05700000000001</v>
@@ -20016,7 +20038,7 @@
         <v>12.16</v>
       </c>
       <c r="K388" t="n">
-        <v>-25.58139534883688</v>
+        <v>-39.99999999999911</v>
       </c>
       <c r="L388" t="n">
         <v>6.05000000000001</v>
@@ -20067,7 +20089,7 @@
         <v>12.23</v>
       </c>
       <c r="K389" t="n">
-        <v>-7.999999999999893</v>
+        <v>-11.99999999999993</v>
       </c>
       <c r="L389" t="n">
         <v>6.049000000000011</v>
@@ -20118,7 +20140,7 @@
         <v>12.23</v>
       </c>
       <c r="K390" t="n">
-        <v>-2.127659574468013</v>
+        <v>-11.99999999999993</v>
       </c>
       <c r="L390" t="n">
         <v>6.046000000000012</v>
@@ -20169,7 +20191,7 @@
         <v>12.37</v>
       </c>
       <c r="K391" t="n">
-        <v>21.31147540983582</v>
+        <v>26.31578947368381</v>
       </c>
       <c r="L391" t="n">
         <v>6.057000000000011</v>
@@ -20220,7 +20242,7 @@
         <v>12.54</v>
       </c>
       <c r="K392" t="n">
-        <v>-9.333333333333304</v>
+        <v>-12.72727272727268</v>
       </c>
       <c r="L392" t="n">
         <v>6.050000000000011</v>
@@ -20271,7 +20293,7 @@
         <v>12.67</v>
       </c>
       <c r="K393" t="n">
-        <v>6.818181818181726</v>
+        <v>15.62499999999984</v>
       </c>
       <c r="L393" t="n">
         <v>6.056000000000012</v>
@@ -20322,7 +20344,7 @@
         <v>12.74</v>
       </c>
       <c r="K394" t="n">
-        <v>-1.052631578947339</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
         <v>6.059000000000011</v>
@@ -20373,7 +20395,7 @@
         <v>12.83</v>
       </c>
       <c r="K395" t="n">
-        <v>7.692307692307653</v>
+        <v>11.68831168831162</v>
       </c>
       <c r="L395" t="n">
         <v>6.068000000000011</v>
@@ -20424,7 +20446,7 @@
         <v>12.86</v>
       </c>
       <c r="K396" t="n">
-        <v>17.99999999999993</v>
+        <v>26.02739726027388</v>
       </c>
       <c r="L396" t="n">
         <v>6.080000000000012</v>
@@ -20475,7 +20497,7 @@
         <v>12.88</v>
       </c>
       <c r="K397" t="n">
-        <v>10.41666666666656</v>
+        <v>27.77777777777771</v>
       </c>
       <c r="L397" t="n">
         <v>6.097000000000011</v>
@@ -20526,7 +20548,7 @@
         <v>12.89</v>
       </c>
       <c r="K398" t="n">
-        <v>12.76595744680843</v>
+        <v>18.18181818181815</v>
       </c>
       <c r="L398" t="n">
         <v>6.116000000000011</v>
@@ -20577,7 +20599,7 @@
         <v>12.92</v>
       </c>
       <c r="K399" t="n">
-        <v>8.333333333333288</v>
+        <v>13.04347826086952</v>
       </c>
       <c r="L399" t="n">
         <v>6.125000000000011</v>
@@ -20628,7 +20650,7 @@
         <v>12.95</v>
       </c>
       <c r="K400" t="n">
-        <v>9.278350515463845</v>
+        <v>-3.448275862068881</v>
       </c>
       <c r="L400" t="n">
         <v>6.137000000000011</v>
@@ -20679,7 +20701,7 @@
         <v>12.96</v>
       </c>
       <c r="K401" t="n">
-        <v>10.20408163265297</v>
+        <v>38.09523809523797</v>
       </c>
       <c r="L401" t="n">
         <v>6.136000000000011</v>
@@ -20730,7 +20752,7 @@
         <v>12.96</v>
       </c>
       <c r="K402" t="n">
-        <v>9.278350515463845</v>
+        <v>10.34482758620695</v>
       </c>
       <c r="L402" t="n">
         <v>6.15200000000001</v>
@@ -20781,7 +20803,7 @@
         <v>13.02</v>
       </c>
       <c r="K403" t="n">
-        <v>2.912621359223307</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L403" t="n">
         <v>6.149000000000011</v>
@@ -20832,7 +20854,7 @@
         <v>13.02</v>
       </c>
       <c r="K404" t="n">
-        <v>7.070707070707059</v>
+        <v>-26.31578947368394</v>
       </c>
       <c r="L404" t="n">
         <v>6.153000000000011</v>
@@ -20883,7 +20905,7 @@
         <v>13.05</v>
       </c>
       <c r="K405" t="n">
-        <v>7.070707070706983</v>
+        <v>-26.31578947368465</v>
       </c>
       <c r="L405" t="n">
         <v>6.15100000000001</v>
@@ -20934,7 +20956,7 @@
         <v>13.1</v>
       </c>
       <c r="K406" t="n">
-        <v>11.5384615384615</v>
+        <v>9.090909090909275</v>
       </c>
       <c r="L406" t="n">
         <v>6.15100000000001</v>
@@ -20985,7 +21007,7 @@
         <v>13.14</v>
       </c>
       <c r="K407" t="n">
-        <v>22.7722772277227</v>
+        <v>27.99999999999991</v>
       </c>
       <c r="L407" t="n">
         <v>6.157000000000011</v>
@@ -21036,7 +21058,7 @@
         <v>13.16</v>
       </c>
       <c r="K408" t="n">
-        <v>27.99999999999993</v>
+        <v>49.99999999999963</v>
       </c>
       <c r="L408" t="n">
         <v>6.166000000000011</v>
@@ -21087,7 +21109,7 @@
         <v>13.21</v>
       </c>
       <c r="K409" t="n">
-        <v>26.53061224489783</v>
+        <v>53.8461538461534</v>
       </c>
       <c r="L409" t="n">
         <v>6.18300000000001</v>
@@ -21138,7 +21160,7 @@
         <v>13.25</v>
       </c>
       <c r="K410" t="n">
-        <v>29.41176470588224</v>
+        <v>58.6206896551722</v>
       </c>
       <c r="L410" t="n">
         <v>6.20100000000001</v>
@@ -21189,7 +21211,7 @@
         <v>13.27</v>
       </c>
       <c r="K411" t="n">
-        <v>20.00000000000002</v>
+        <v>61.29032258064518</v>
       </c>
       <c r="L411" t="n">
         <v>6.22000000000001</v>
@@ -21240,7 +21262,7 @@
         <v>13.33</v>
       </c>
       <c r="K412" t="n">
-        <v>36.70886075949355</v>
+        <v>61.2903225806449</v>
       </c>
       <c r="L412" t="n">
         <v>6.233000000000009</v>
@@ -21291,7 +21313,7 @@
         <v>13.47</v>
       </c>
       <c r="K413" t="n">
-        <v>37.49999999999997</v>
+        <v>73.33333333333317</v>
       </c>
       <c r="L413" t="n">
         <v>6.26600000000001</v>
@@ -21342,7 +21364,7 @@
         <v>13.58</v>
       </c>
       <c r="K414" t="n">
-        <v>57.14285714285698</v>
+        <v>77.3584905660376</v>
       </c>
       <c r="L414" t="n">
         <v>6.310000000000009</v>
@@ -21393,7 +21415,7 @@
         <v>13.64</v>
       </c>
       <c r="K415" t="n">
-        <v>55.55555555555542</v>
+        <v>77.77777777777763</v>
       </c>
       <c r="L415" t="n">
         <v>6.357000000000009</v>
@@ -21444,7 +21466,7 @@
         <v>13.64</v>
       </c>
       <c r="K416" t="n">
-        <v>53.84615384615375</v>
+        <v>75.99999999999997</v>
       </c>
       <c r="L416" t="n">
         <v>6.39900000000001</v>
@@ -21495,7 +21517,7 @@
         <v>13.73</v>
       </c>
       <c r="K417" t="n">
-        <v>62.35294117647051</v>
+        <v>78.94736842105262</v>
       </c>
       <c r="L417" t="n">
         <v>6.446000000000009</v>
@@ -21546,7 +21568,7 @@
         <v>13.82</v>
       </c>
       <c r="K418" t="n">
-        <v>67.74193548387085</v>
+        <v>80.32786885245913</v>
       </c>
       <c r="L418" t="n">
         <v>6.50000000000001</v>
@@ -21597,7 +21619,7 @@
         <v>13.85</v>
       </c>
       <c r="K419" t="n">
-        <v>74.19354838709656</v>
+        <v>79.99999999999989</v>
       </c>
       <c r="L419" t="n">
         <v>6.552000000000011</v>
@@ -21648,7 +21670,7 @@
         <v>13.87</v>
       </c>
       <c r="K420" t="n">
-        <v>73.9130434782607</v>
+        <v>79.99999999999974</v>
       </c>
       <c r="L420" t="n">
         <v>6.602000000000011</v>
@@ -21699,7 +21721,7 @@
         <v>13.9</v>
       </c>
       <c r="K421" t="n">
-        <v>74.46808510638276</v>
+        <v>99.99999999999969</v>
       </c>
       <c r="L421" t="n">
         <v>6.653000000000011</v>
@@ -21750,7 +21772,7 @@
         <v>13.91</v>
       </c>
       <c r="K422" t="n">
-        <v>74.73684210526294</v>
+        <v>99.9999999999996</v>
       </c>
       <c r="L422" t="n">
         <v>6.711000000000011</v>
@@ -21801,7 +21823,7 @@
         <v>13.91</v>
       </c>
       <c r="K423" t="n">
-        <v>86.516853932584</v>
+        <v>99.99999999999946</v>
       </c>
       <c r="L423" t="n">
         <v>6.755000000000011</v>
@@ -21852,7 +21874,7 @@
         <v>13.99</v>
       </c>
       <c r="K424" t="n">
-        <v>71.13402061855648</v>
+        <v>54.28571428571393</v>
       </c>
       <c r="L424" t="n">
         <v>6.780000000000011</v>
@@ -21903,7 +21925,7 @@
         <v>13.99</v>
       </c>
       <c r="K425" t="n">
-        <v>70.21276595744659</v>
+        <v>54.28571428571393</v>
       </c>
       <c r="L425" t="n">
         <v>6.799000000000011</v>
@@ -21954,7 +21976,7 @@
         <v>14.02</v>
       </c>
       <c r="K426" t="n">
-        <v>69.56521739130405</v>
+        <v>44.8275862068961</v>
       </c>
       <c r="L426" t="n">
         <v>6.82100000000001</v>
@@ -22005,7 +22027,7 @@
         <v>14.09</v>
       </c>
       <c r="K427" t="n">
-        <v>70.52631578947347</v>
+        <v>40.74074074074039</v>
       </c>
       <c r="L427" t="n">
         <v>6.841000000000011</v>
@@ -22056,7 +22078,7 @@
         <v>14.09</v>
       </c>
       <c r="K428" t="n">
-        <v>69.89247311827937</v>
+        <v>33.33333333333309</v>
       </c>
       <c r="L428" t="n">
         <v>6.852000000000011</v>
@@ -22107,7 +22129,7 @@
         <v>14.15</v>
       </c>
       <c r="K429" t="n">
-        <v>70.21276595744673</v>
+        <v>42.85714285714272</v>
       </c>
       <c r="L429" t="n">
         <v>6.866000000000011</v>
@@ -22158,7 +22180,7 @@
         <v>14.19</v>
       </c>
       <c r="K430" t="n">
-        <v>61.70212765957439</v>
+        <v>17.24137931034482</v>
       </c>
       <c r="L430" t="n">
         <v>6.874000000000011</v>
@@ -22209,7 +22231,7 @@
         <v>14.22</v>
       </c>
       <c r="K431" t="n">
-        <v>62.10526315789454</v>
+        <v>22.58064516129038</v>
       </c>
       <c r="L431" t="n">
         <v>6.88200000000001</v>
@@ -22260,7 +22282,7 @@
         <v>14.26</v>
       </c>
       <c r="K432" t="n">
-        <v>65.5913978494623</v>
+        <v>8.571428571428651</v>
       </c>
       <c r="L432" t="n">
         <v>6.88500000000001</v>
@@ -22311,7 +22333,7 @@
         <v>14.29</v>
       </c>
       <c r="K433" t="n">
-        <v>60.97560975609741</v>
+        <v>46.66666666666674</v>
       </c>
       <c r="L433" t="n">
         <v>6.891000000000011</v>
@@ -22362,7 +22384,7 @@
         <v>14.29</v>
       </c>
       <c r="K434" t="n">
-        <v>54.9295774647886</v>
+        <v>46.66666666666674</v>
       </c>
       <c r="L434" t="n">
         <v>6.905000000000011</v>
@@ -22413,7 +22435,7 @@
         <v>14.29</v>
       </c>
       <c r="K435" t="n">
-        <v>50.76923076923061</v>
+        <v>40.74074074074092</v>
       </c>
       <c r="L435" t="n">
         <v>6.919000000000011</v>
@@ -22464,7 +22486,7 @@
         <v>14.31</v>
       </c>
       <c r="K436" t="n">
-        <v>46.26865671641773</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L436" t="n">
         <v>6.928000000000011</v>
@@ -22515,7 +22537,7 @@
         <v>14.36</v>
       </c>
       <c r="K437" t="n">
-        <v>42.85714285714262</v>
+        <v>25.92592592592574</v>
       </c>
       <c r="L437" t="n">
         <v>6.935000000000011</v>
@@ -22566,7 +22588,7 @@
         <v>14.39</v>
       </c>
       <c r="K438" t="n">
-        <v>26.31578947368418</v>
+        <v>-8.333333333333147</v>
       </c>
       <c r="L438" t="n">
         <v>6.93900000000001</v>
@@ -22617,7 +22639,7 @@
         <v>14.42</v>
       </c>
       <c r="K439" t="n">
-        <v>15.78947368421049</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L439" t="n">
         <v>6.93400000000001</v>
@@ -22668,7 +22690,7 @@
         <v>14.43</v>
       </c>
       <c r="K440" t="n">
-        <v>10.71428571428579</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L440" t="n">
         <v>6.932000000000011</v>
@@ -22719,7 +22741,7 @@
         <v>14.47</v>
       </c>
       <c r="K441" t="n">
-        <v>12.28070175438601</v>
+        <v>14.28571428571435</v>
       </c>
       <c r="L441" t="n">
         <v>6.93100000000001</v>
@@ -22770,7 +22792,7 @@
         <v>14.51</v>
       </c>
       <c r="K442" t="n">
-        <v>3.333333333333413</v>
+        <v>-18.18181818181829</v>
       </c>
       <c r="L442" t="n">
         <v>6.930000000000011</v>
@@ -22821,7 +22843,7 @@
         <v>14.52</v>
       </c>
       <c r="K443" t="n">
-        <v>1.639344262295044</v>
+        <v>-21.73913043478288</v>
       </c>
       <c r="L443" t="n">
         <v>6.925000000000011</v>

--- a/BackTest/2019-10-16 BackTest HYC.xlsx
+++ b/BackTest/2019-10-16 BackTest HYC.xlsx
@@ -9551,17 +9551,13 @@
         <v>6.075499999999995</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K262" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
@@ -9598,9 +9594,7 @@
       <c r="J263" t="n">
         <v>5.95</v>
       </c>
-      <c r="K263" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -9641,9 +9635,7 @@
       <c r="J264" t="n">
         <v>5.95</v>
       </c>
-      <c r="K264" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9682,11 +9674,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K265" t="n">
-        <v>5.95</v>
-      </c>
+        <v>5.99</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9727,9 +9717,7 @@
       <c r="J266" t="n">
         <v>5.99</v>
       </c>
-      <c r="K266" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9768,11 +9756,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K267" t="n">
-        <v>5.95</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9811,11 +9797,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K268" t="n">
-        <v>5.95</v>
-      </c>
+        <v>5.98</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9856,9 +9840,7 @@
       <c r="J269" t="n">
         <v>5.97</v>
       </c>
-      <c r="K269" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9891,17 +9873,13 @@
         <v>6.048166666666662</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K270" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9934,17 +9912,13 @@
         <v>6.046333333333329</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K271" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9977,17 +9951,13 @@
         <v>6.043166666666663</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>6</v>
-      </c>
-      <c r="K272" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10020,17 +9990,13 @@
         <v>6.040666666666662</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K273" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10063,17 +10029,13 @@
         <v>6.039333333333329</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K274" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10106,17 +10068,13 @@
         <v>6.036499999999996</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K275" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10149,17 +10107,13 @@
         <v>6.03383333333333</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K276" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10192,17 +10146,13 @@
         <v>6.03233333333333</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K277" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10235,17 +10185,13 @@
         <v>6.030166666666664</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>6</v>
-      </c>
-      <c r="K278" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10278,17 +10224,13 @@
         <v>6.027999999999997</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>6</v>
-      </c>
-      <c r="K279" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10321,17 +10263,13 @@
         <v>6.025499999999997</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>6</v>
-      </c>
-      <c r="K280" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10364,17 +10302,13 @@
         <v>6.02283333333333</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K281" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10407,17 +10341,13 @@
         <v>6.023999999999997</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K282" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10450,17 +10380,13 @@
         <v>6.022833333333329</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K283" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10493,17 +10419,13 @@
         <v>6.021999999999996</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K284" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10536,17 +10458,13 @@
         <v>6.021333333333329</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K285" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10579,17 +10497,13 @@
         <v>6.020166666666663</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K286" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10628,9 +10542,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10663,17 +10575,13 @@
         <v>6.017833333333329</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>6</v>
-      </c>
-      <c r="K288" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10706,17 +10614,13 @@
         <v>6.016166666666663</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K289" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10749,17 +10653,13 @@
         <v>6.01383333333333</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>6</v>
-      </c>
-      <c r="K290" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10792,17 +10692,13 @@
         <v>6.012166666666663</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>6</v>
-      </c>
-      <c r="K291" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10835,17 +10731,13 @@
         <v>6.012499999999997</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>6</v>
-      </c>
-      <c r="K292" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10878,17 +10770,13 @@
         <v>6.012499999999997</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>6</v>
-      </c>
-      <c r="K293" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10921,17 +10809,13 @@
         <v>6.012166666666663</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>6</v>
-      </c>
-      <c r="K294" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10964,17 +10848,13 @@
         <v>6.010999999999997</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K295" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11007,17 +10887,13 @@
         <v>6.00883333333333</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K296" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11050,17 +10926,13 @@
         <v>6.007666666666664</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K297" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11093,17 +10965,13 @@
         <v>6.005499999999997</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>6</v>
-      </c>
-      <c r="K298" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11136,17 +11004,13 @@
         <v>6.003166666666663</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>6</v>
-      </c>
-      <c r="K299" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11179,17 +11043,13 @@
         <v>6.001666666666663</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K300" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11222,17 +11082,13 @@
         <v>5.999666666666664</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K301" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11265,17 +11121,13 @@
         <v>5.998499999999996</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K302" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11308,17 +11160,13 @@
         <v>5.997999999999996</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>6</v>
-      </c>
-      <c r="K303" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11351,17 +11199,13 @@
         <v>5.997666666666663</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K304" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11394,17 +11238,13 @@
         <v>5.997166666666663</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>6</v>
-      </c>
-      <c r="K305" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11437,17 +11277,13 @@
         <v>5.996999999999997</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>6</v>
-      </c>
-      <c r="K306" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11480,17 +11316,13 @@
         <v>5.995666666666664</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K307" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11523,17 +11355,13 @@
         <v>5.995666666666664</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K308" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11566,17 +11394,13 @@
         <v>5.995999999999997</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>6</v>
-      </c>
-      <c r="K309" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11609,17 +11433,13 @@
         <v>5.99533333333333</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>6</v>
-      </c>
-      <c r="K310" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11652,17 +11472,13 @@
         <v>5.99433333333333</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K311" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11695,17 +11511,13 @@
         <v>5.99383333333333</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K312" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11738,17 +11550,13 @@
         <v>5.992999999999997</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>6</v>
-      </c>
-      <c r="K313" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11781,17 +11589,13 @@
         <v>5.99183333333333</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K314" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11824,17 +11628,13 @@
         <v>5.99083333333333</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K315" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11867,17 +11667,13 @@
         <v>5.989166666666663</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K316" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11910,17 +11706,13 @@
         <v>5.987166666666663</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K317" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11953,17 +11745,13 @@
         <v>5.987166666666663</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K318" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11996,17 +11784,13 @@
         <v>5.987166666666663</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K319" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12039,17 +11823,13 @@
         <v>5.987499999999997</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K320" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12082,17 +11862,13 @@
         <v>5.987833333333331</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K321" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12125,17 +11901,13 @@
         <v>5.987833333333331</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K322" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12168,17 +11940,13 @@
         <v>5.986499999999998</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="K323" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12211,17 +11979,13 @@
         <v>5.985499999999998</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="K324" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12254,17 +12018,13 @@
         <v>5.984499999999998</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="K325" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12297,17 +12057,13 @@
         <v>5.983333333333332</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="K326" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12340,17 +12096,13 @@
         <v>5.983166666666665</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K327" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12383,17 +12135,13 @@
         <v>5.982499999999998</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K328" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12426,17 +12174,13 @@
         <v>5.981999999999998</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K329" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12469,17 +12213,13 @@
         <v>5.982333333333332</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K330" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12512,17 +12252,13 @@
         <v>5.981999999999999</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K331" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12555,17 +12291,13 @@
         <v>5.982333333333332</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K332" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12598,17 +12330,13 @@
         <v>5.983499999999998</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K333" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12641,17 +12369,13 @@
         <v>5.984333333333333</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K334" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12684,17 +12408,13 @@
         <v>5.985666666666665</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K335" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12727,17 +12447,13 @@
         <v>5.986833333333332</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K336" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12770,17 +12486,13 @@
         <v>5.987833333333332</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K337" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12813,17 +12525,13 @@
         <v>5.989333333333332</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K338" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12856,17 +12564,13 @@
         <v>5.990166666666665</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="K339" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12905,9 +12609,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12946,9 +12648,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12987,9 +12687,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13028,9 +12726,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13069,9 +12765,7 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13110,9 +12804,7 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13151,9 +12843,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13192,9 +12882,7 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13233,9 +12921,7 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13274,9 +12960,7 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13315,9 +12999,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13356,9 +13038,7 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13397,9 +13077,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13438,9 +13116,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13479,9 +13155,7 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13520,9 +13194,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13561,9 +13233,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13602,9 +13272,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13643,9 +13311,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13684,9 +13350,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13725,9 +13389,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13766,9 +13428,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13807,9 +13467,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13848,9 +13506,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13889,9 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13930,9 +13584,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13971,9 +13623,7 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14012,9 +13662,7 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14053,9 +13701,7 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14094,9 +13740,7 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14135,9 +13779,7 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14176,9 +13818,7 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14217,9 +13857,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14258,9 +13896,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14299,9 +13935,7 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14340,9 +13974,7 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14381,9 +14013,7 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14422,9 +14052,7 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14463,9 +14091,7 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14504,9 +14130,7 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14545,9 +14169,7 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14586,9 +14208,7 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14627,9 +14247,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14668,9 +14286,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14709,9 +14325,7 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14750,9 +14364,7 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14791,9 +14403,7 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14832,9 +14442,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14873,9 +14481,7 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14914,9 +14520,7 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14955,9 +14559,7 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14996,9 +14598,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15037,9 +14637,7 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15078,9 +14676,7 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15119,9 +14715,7 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15160,9 +14754,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15201,9 +14793,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15242,9 +14832,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15283,9 +14871,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15324,9 +14910,7 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15365,9 +14949,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15406,9 +14988,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15447,9 +15027,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15488,9 +15066,7 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15529,9 +15105,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15570,9 +15144,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15611,9 +15183,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15652,9 +15222,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15693,9 +15261,7 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15734,9 +15300,7 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15775,9 +15339,7 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15816,9 +15378,7 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15857,9 +15417,7 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15898,9 +15456,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15939,9 +15495,7 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15980,9 +15534,7 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16021,9 +15573,7 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16062,9 +15612,7 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16103,9 +15651,7 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16144,9 +15690,7 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16182,20 +15726,16 @@
         <v>0</v>
       </c>
       <c r="I420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M420" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -16226,16 +15766,10 @@
         <v>1</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
-        <v>1.149621848739496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">

--- a/BackTest/2019-10-16 BackTest HYC.xlsx
+++ b/BackTest/2019-10-16 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3112050.163300001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3346437.330000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3346437.330000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3346437.330000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3346437.330000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3599379.380000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-3599369.380000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-3753874.973000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3741731.887700001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3741731.887700001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-3601580.952000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3618254.282500001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-3497534.282500001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-3433392.879800001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-3473777.422400001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-3008364.300300001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-3289702.202600001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3290835.202600001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3290825.202600001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3290815.202600001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3240739.166300002</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3568220.858300001</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3568210.858300001</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3577155.671000001</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3577155.671000001</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3577123.671000001</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3577123.671000001</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3577123.671000001</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3577178.671000001</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3577067.671000001</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-3577067.671000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-3594828.501800002</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3594838.501800002</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3623679.834700001</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3623689.834700001</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3763490.393000002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3763480.393000002</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3763470.393000002</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3763460.393000002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3763482.393000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3734595.528900002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3734595.528900002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3734585.528900002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3734628.528900002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3734628.528900002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3734650.528900002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3734650.528900002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3734640.528900002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3640419.700000002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3652259.958300001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3652249.958300001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3669687.377200001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3694297.377200001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3781414.751300002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3781404.751300002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3781404.751300002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3781394.751300002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3785829.419900001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3790889.419900001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3790889.419900001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-4127526.677900001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-4127526.677900001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-5386974.131500001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-5332429.214700001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-6437594.355200001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-6420076.580900001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-6627500.452600001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-6589338.318500001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-6687127.907600001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-7717272.980000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-7717262.980000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-8236654.488000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-8236654.488000002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-8849720.976500001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-8827482.203300001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-8851471.241700001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-9251431.271300001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -10615,11 +10615,17 @@
         <v>-22866102.96830568</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>6.04</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +10658,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +10695,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +10732,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +10769,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +10806,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +10843,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +10880,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +10917,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +10950,17 @@
         <v>-23958233.70540568</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>5.95</v>
+      </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +10989,17 @@
         <v>-23958233.70540568</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>5.95</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11028,17 @@
         <v>-23958233.70540568</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>5.95</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11067,17 @@
         <v>-23958233.70540568</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>5.95</v>
+      </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11106,17 @@
         <v>-23919463.35811386</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>5.95</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11145,17 @@
         <v>-23919463.35811386</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>5.99</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11184,17 @@
         <v>-23842060.19861386</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>5.99</v>
+      </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11223,17 @@
         <v>-23843181.43601386</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>6</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11262,17 @@
         <v>-23852401.43601386</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>5.98</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11301,17 @@
         <v>-23847401.43601386</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11340,17 @@
         <v>-24053524.05341386</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>6</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11379,17 @@
         <v>-24053095.13061386</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>5.96</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11418,17 @@
         <v>-24053095.13061386</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>6</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11457,17 @@
         <v>-24108650.13061386</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>6</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11500,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +11533,17 @@
         <v>-24395020.92841386</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>6</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11572,17 @@
         <v>-24371974.79511387</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +11611,17 @@
         <v>-24290308.46691386</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>5.99</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11650,17 @@
         <v>-24290308.46691386</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>6</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11689,17 @@
         <v>-24290308.46691386</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>6</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11728,17 @@
         <v>-24290308.46691386</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>6</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11767,17 @@
         <v>-24267262.33361387</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>6</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11806,17 @@
         <v>-22621431.13791386</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>6.01</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +11849,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +11886,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +11923,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +11960,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +11997,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +12030,17 @@
         <v>-22838718.44051386</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>6</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12073,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12106,17 @@
         <v>-23077725.40651386</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +12145,17 @@
         <v>-23077714.40651386</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>5.95</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12184,17 @@
         <v>-23077714.40651386</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>6</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +12223,17 @@
         <v>-23077392.12701386</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>6</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +12262,17 @@
         <v>-23087392.12701386</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>6.01</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12301,17 @@
         <v>-23085760.93485705</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>6</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12340,17 @@
         <v>-23212009.30385705</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>6.02</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12379,17 @@
         <v>-23211795.95875705</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>5.99</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12422,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12455,17 @@
         <v>-23210903.95865705</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12494,17 @@
         <v>-23210860.21495705</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>6</v>
+      </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12533,17 @@
         <v>-23230780.66165705</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>6.01</v>
+      </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12572,17 @@
         <v>-23404968.77445704</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>5.98</v>
+      </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12611,17 @@
         <v>-23403846.77445704</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12650,17 @@
         <v>-23403846.77445704</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>6.01</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12689,17 @@
         <v>-23404357.77445704</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>6.01</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12728,17 @@
         <v>-23404357.77445704</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>6</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12767,17 @@
         <v>-23218795.10265705</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>6</v>
+      </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12806,17 @@
         <v>-23243194.33375705</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>6.01</v>
+      </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12845,17 @@
         <v>-23243194.33375705</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>6</v>
+      </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12884,17 @@
         <v>-23243194.33375705</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>6</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12923,17 @@
         <v>-23245403.24685705</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>6</v>
+      </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +12962,17 @@
         <v>-23245370.15995705</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>5.99</v>
+      </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +13001,17 @@
         <v>-23245370.15995705</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>6</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +13040,17 @@
         <v>-23245592.15995705</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>6</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +13079,17 @@
         <v>-23247862.15995705</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>5.98</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +13118,17 @@
         <v>-23790866.74415705</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>5.94</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +13157,17 @@
         <v>-24211181.25905704</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>5.9</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,15 +13196,17 @@
         <v>-24194207.41885705</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>5.88</v>
       </c>
-      <c r="J377" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,15 +13235,15 @@
         <v>-24194207.41885705</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L378" t="n">
@@ -12902,17 +13274,15 @@
         <v>-24127709.77275705</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>5.95</v>
       </c>
-      <c r="J379" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L379" t="n">
@@ -12943,17 +13313,15 @@
         <v>-24127709.77275705</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>5.97</v>
       </c>
-      <c r="J380" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L380" t="n">
@@ -12984,14 +13352,12 @@
         <v>-24130092.30675705</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>5.97</v>
       </c>
-      <c r="J381" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13025,14 +13391,12 @@
         <v>-24396960.08295705</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>5.95</v>
       </c>
-      <c r="J382" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13066,14 +13430,12 @@
         <v>-24395827.18585705</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>5.87</v>
       </c>
-      <c r="J383" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13107,14 +13469,12 @@
         <v>-24395827.18585705</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>5.93</v>
       </c>
-      <c r="J384" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13148,14 +13508,12 @@
         <v>-24395827.18585705</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>5.93</v>
       </c>
-      <c r="J385" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13189,14 +13547,12 @@
         <v>-24194601.13875705</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>5.93</v>
       </c>
-      <c r="J386" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13230,14 +13586,12 @@
         <v>-24248202.65865705</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>5.97</v>
       </c>
-      <c r="J387" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13271,14 +13625,12 @@
         <v>-24136209.33475705</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>5.93</v>
       </c>
-      <c r="J388" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13312,14 +13664,12 @@
         <v>-23764453.08695705</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>5.97</v>
       </c>
-      <c r="J389" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13353,14 +13703,12 @@
         <v>-23764453.08695705</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>5.98</v>
       </c>
-      <c r="J390" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13394,14 +13742,12 @@
         <v>-23764390.47355705</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>5.98</v>
       </c>
-      <c r="J391" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13435,14 +13781,12 @@
         <v>-23764390.47355705</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>6.02</v>
       </c>
-      <c r="J392" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13476,12 +13820,12 @@
         <v>-23057939.60395705</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13515,12 +13859,12 @@
         <v>-23057939.60395705</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13554,12 +13898,12 @@
         <v>-23057912.87955705</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13593,12 +13937,12 @@
         <v>-23057912.87955705</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13635,9 +13979,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13674,9 +14016,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13713,9 +14053,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13752,9 +14090,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13791,9 +14127,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13827,12 +14161,12 @@
         <v>-23421681.19775705</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13869,9 +14203,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13908,9 +14240,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13947,9 +14277,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13986,9 +14314,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14025,9 +14351,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14064,9 +14388,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14103,9 +14425,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14142,9 +14462,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14181,9 +14499,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14220,9 +14536,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14259,9 +14573,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14298,9 +14610,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14337,9 +14647,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14376,9 +14684,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14415,9 +14721,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14454,9 +14758,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14493,9 +14795,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14532,9 +14832,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14571,9 +14869,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14610,9 +14906,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14649,9 +14943,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14685,12 +14977,12 @@
         <v>-24616318.51005705</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14724,12 +15016,12 @@
         <v>-24613378.25085706</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14763,12 +15055,12 @@
         <v>-24613378.25085706</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14802,12 +15094,12 @@
         <v>-24613378.25085706</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14844,9 +15136,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14883,9 +15173,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14919,12 +15207,12 @@
         <v>-24613977.25085706</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14958,12 +15246,12 @@
         <v>-24613866.25085706</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14997,12 +15285,12 @@
         <v>-24613866.25085706</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15036,12 +15324,12 @@
         <v>-24613866.25085706</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15078,9 +15366,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15117,9 +15403,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15153,12 +15437,12 @@
         <v>-24613815.71815706</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15192,12 +15476,12 @@
         <v>-24613905.71815706</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15231,12 +15515,12 @@
         <v>-24613875.71815706</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15270,12 +15554,12 @@
         <v>-24613853.71815706</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15309,12 +15593,12 @@
         <v>-24613853.71815706</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15348,12 +15632,12 @@
         <v>-24613726.81035706</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15390,9 +15674,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15429,9 +15711,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15468,9 +15748,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15507,9 +15785,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15546,9 +15822,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15585,9 +15859,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15621,12 +15893,12 @@
         <v>-25197790.65365706</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15660,12 +15932,12 @@
         <v>-25197790.65365706</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15699,12 +15971,12 @@
         <v>-24498599.71515706</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>5.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15741,9 +16013,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15780,9 +16050,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15819,9 +16087,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15858,9 +16124,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15897,9 +16161,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15936,9 +16198,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15975,9 +16235,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16014,9 +16272,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16053,9 +16309,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16092,9 +16346,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16131,9 +16383,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16170,9 +16420,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16209,9 +16457,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16248,9 +16494,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16287,9 +16531,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16326,9 +16568,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16365,9 +16605,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16404,9 +16642,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16443,9 +16679,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16482,9 +16716,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16521,9 +16753,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16560,9 +16790,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16599,9 +16827,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16638,9 +16864,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16677,9 +16901,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16716,9 +16938,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16755,9 +16975,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16794,9 +17012,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16833,9 +17049,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16869,12 +17083,10 @@
         <v>9997057.284688551</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16908,12 +17120,10 @@
         <v>10698836.84897047</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16947,12 +17157,10 @@
         <v>10698836.84897047</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16986,12 +17194,10 @@
         <v>6046091.051070473</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17025,12 +17231,10 @@
         <v>6046091.051070473</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17067,9 +17271,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17106,9 +17308,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17145,9 +17345,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17181,12 +17379,10 @@
         <v>9246131.050912226</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17223,9 +17419,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17259,12 +17453,10 @@
         <v>8762481.786759708</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17298,23 +17490,19 @@
         <v>8475716.263859708</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L491" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest HYC.xlsx
+++ b/BackTest/2019-10-16 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3112050.163300001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3346437.330000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3346437.330000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3346437.330000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3346437.330000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3599379.380000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-3599369.380000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-3753874.973000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3741731.887700001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3741731.887700001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-3601580.952000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3618254.282500001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-3497534.282500001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-3433392.879800001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-3473777.422400001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-3008364.300300001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-3289702.202600001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3290835.202600001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3290825.202600001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3290815.202600001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3240739.166300002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3568220.858300001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3568210.858300001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3577155.671000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3577155.671000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3577123.671000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3577123.671000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3577123.671000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3577178.671000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3577067.671000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-3577067.671000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-3594828.501800002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3594838.501800002</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3623679.834700001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3623689.834700001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3763490.393000002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3763480.393000002</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3763470.393000002</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3763460.393000002</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3763482.393000002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3734595.528900002</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3734595.528900002</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3734585.528900002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3734628.528900002</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3734628.528900002</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3734650.528900002</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3734650.528900002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3734640.528900002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3640419.700000002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3652259.958300001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3652249.958300001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3669687.377200001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3694297.377200001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3781414.751300002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3781404.751300002</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3781404.751300002</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3781394.751300002</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3785829.419900001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3790889.419900001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3790889.419900001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-4127526.677900001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-4127526.677900001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-5386974.131500001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-5332429.214700001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-6437594.355200001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-6420076.580900001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-6627500.452600001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-6589338.318500001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-6687127.907600001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-7717272.980000001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-7717262.980000001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-8236654.488000002</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-8236654.488000002</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-8849720.976500001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-8827482.203300001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-8851471.241700001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-9251431.271300001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -10615,1208 +10615,1052 @@
         <v>-22866102.96830568</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>6</v>
+      </c>
+      <c r="C311" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D311" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E311" t="n">
+        <v>6</v>
+      </c>
+      <c r="F311" t="n">
+        <v>44</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-22866146.96830568</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
         <v>6.04</v>
       </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
+      <c r="C312" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D312" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E312" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F312" t="n">
+        <v>152.8925</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-22865994.07580568</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C313" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D313" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E313" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F313" t="n">
+        <v>177417.0247</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-22865994.07580568</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C314" t="n">
+        <v>6</v>
+      </c>
+      <c r="D314" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E314" t="n">
+        <v>6</v>
+      </c>
+      <c r="F314" t="n">
+        <v>188131.9142</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-23054125.99000568</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>6</v>
+      </c>
+      <c r="C315" t="n">
+        <v>6</v>
+      </c>
+      <c r="D315" t="n">
+        <v>6</v>
+      </c>
+      <c r="E315" t="n">
+        <v>6</v>
+      </c>
+      <c r="F315" t="n">
+        <v>109942.3256</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-23054125.99000568</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C316" t="n">
+        <v>6</v>
+      </c>
+      <c r="D316" t="n">
+        <v>6</v>
+      </c>
+      <c r="E316" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F316" t="n">
+        <v>222920.5782</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-23054125.99000568</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C317" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D317" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E317" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F317" t="n">
+        <v>904107.7154</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-23958233.70540568</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C318" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D318" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E318" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F318" t="n">
+        <v>245013.1908</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-23958233.70540568</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C319" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D319" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E319" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F319" t="n">
+        <v>38849.4884</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-23958233.70540568</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C320" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D320" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E320" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F320" t="n">
+        <v>184820.0083</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-23958233.70540568</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C321" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D321" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E321" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F321" t="n">
+        <v>14004.4117</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-23958233.70540568</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C322" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D322" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E322" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F322" t="n">
+        <v>29979.2739</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-23958233.70540568</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C323" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D323" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E323" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F323" t="n">
+        <v>38770.347291819</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-23919463.35811386</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C324" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D324" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E324" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F324" t="n">
+        <v>254814.1047</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-23919463.35811386</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C325" t="n">
+        <v>6</v>
+      </c>
+      <c r="D325" t="n">
+        <v>6</v>
+      </c>
+      <c r="E325" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F325" t="n">
+        <v>77403.15949999999</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-23842060.19861386</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C326" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D326" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E326" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F326" t="n">
+        <v>1121.2374</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-23843181.43601386</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C327" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D327" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E327" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F327" t="n">
+        <v>9220</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-23852401.43601386</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C328" t="n">
+        <v>6</v>
+      </c>
+      <c r="D328" t="n">
+        <v>6</v>
+      </c>
+      <c r="E328" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F328" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-23847401.43601386</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C329" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D329" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E329" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F329" t="n">
+        <v>206122.6174</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-24053524.05341386</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C330" t="n">
+        <v>6</v>
+      </c>
+      <c r="D330" t="n">
+        <v>6</v>
+      </c>
+      <c r="E330" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F330" t="n">
+        <v>428.9228</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-24053095.13061386</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>6</v>
+      </c>
+      <c r="C331" t="n">
+        <v>6</v>
+      </c>
+      <c r="D331" t="n">
+        <v>6</v>
+      </c>
+      <c r="E331" t="n">
+        <v>6</v>
+      </c>
+      <c r="F331" t="n">
+        <v>26579</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-24053095.13061386</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C332" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D332" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E332" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F332" t="n">
+        <v>55555</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-24108650.13061386</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C333" t="n">
+        <v>6</v>
+      </c>
+      <c r="D333" t="n">
+        <v>6</v>
+      </c>
+      <c r="E333" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F333" t="n">
+        <v>2300</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-24106350.13061386</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C334" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D334" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E334" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F334" t="n">
+        <v>288670.7978</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-24395020.92841386</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C335" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D335" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E335" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F335" t="n">
+        <v>23046.1333</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-24371974.79511387</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C336" t="n">
+        <v>6</v>
+      </c>
+      <c r="D336" t="n">
+        <v>6</v>
+      </c>
+      <c r="E336" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F336" t="n">
+        <v>81666.3282</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-24290308.46691386</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>6</v>
+      </c>
+      <c r="C337" t="n">
+        <v>6</v>
+      </c>
+      <c r="D337" t="n">
+        <v>6</v>
+      </c>
+      <c r="E337" t="n">
+        <v>6</v>
+      </c>
+      <c r="F337" t="n">
+        <v>84149.1997</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-24290308.46691386</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>6</v>
+      </c>
+      <c r="C338" t="n">
+        <v>6</v>
+      </c>
+      <c r="D338" t="n">
+        <v>6</v>
+      </c>
+      <c r="E338" t="n">
+        <v>6</v>
+      </c>
+      <c r="F338" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-24290308.46691386</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>6</v>
+      </c>
+      <c r="C339" t="n">
+        <v>6</v>
+      </c>
+      <c r="D339" t="n">
+        <v>6</v>
+      </c>
+      <c r="E339" t="n">
+        <v>6</v>
+      </c>
+      <c r="F339" t="n">
+        <v>62035.475</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-24290308.46691386</v>
+      </c>
+      <c r="H339" t="n">
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>6</v>
+      </c>
+      <c r="J339" t="n">
+        <v>6</v>
+      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C340" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D340" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E340" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F340" t="n">
+        <v>23046.1333</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-24267262.33361387</v>
+      </c>
+      <c r="H340" t="n">
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>6</v>
+      </c>
+      <c r="J340" t="n">
+        <v>6</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C341" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D341" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E341" t="n">
+        <v>6</v>
+      </c>
+      <c r="F341" t="n">
+        <v>1645831.1957</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-22621431.13791386</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>6</v>
+      </c>
+      <c r="K341" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>6</v>
-      </c>
-      <c r="C311" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D311" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E311" t="n">
-        <v>6</v>
-      </c>
-      <c r="F311" t="n">
-        <v>44</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-22866146.96830568</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C312" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D312" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E312" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F312" t="n">
-        <v>152.8925</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-22865994.07580568</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C313" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D313" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E313" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F313" t="n">
-        <v>177417.0247</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-22865994.07580568</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C314" t="n">
-        <v>6</v>
-      </c>
-      <c r="D314" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E314" t="n">
-        <v>6</v>
-      </c>
-      <c r="F314" t="n">
-        <v>188131.9142</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-23054125.99000568</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>6</v>
-      </c>
-      <c r="C315" t="n">
-        <v>6</v>
-      </c>
-      <c r="D315" t="n">
-        <v>6</v>
-      </c>
-      <c r="E315" t="n">
-        <v>6</v>
-      </c>
-      <c r="F315" t="n">
-        <v>109942.3256</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-23054125.99000568</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C316" t="n">
-        <v>6</v>
-      </c>
-      <c r="D316" t="n">
-        <v>6</v>
-      </c>
-      <c r="E316" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F316" t="n">
-        <v>222920.5782</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-23054125.99000568</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C317" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D317" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E317" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F317" t="n">
-        <v>904107.7154</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-23958233.70540568</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C318" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D318" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E318" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F318" t="n">
-        <v>245013.1908</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-23958233.70540568</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C319" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D319" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E319" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F319" t="n">
-        <v>38849.4884</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-23958233.70540568</v>
-      </c>
-      <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C320" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D320" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E320" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F320" t="n">
-        <v>184820.0083</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-23958233.70540568</v>
-      </c>
-      <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C321" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D321" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E321" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F321" t="n">
-        <v>14004.4117</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-23958233.70540568</v>
-      </c>
-      <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C322" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D322" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E322" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F322" t="n">
-        <v>29979.2739</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-23958233.70540568</v>
-      </c>
-      <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C323" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D323" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E323" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F323" t="n">
-        <v>38770.347291819</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-23919463.35811386</v>
-      </c>
-      <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C324" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D324" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E324" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F324" t="n">
-        <v>254814.1047</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-23919463.35811386</v>
-      </c>
-      <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C325" t="n">
-        <v>6</v>
-      </c>
-      <c r="D325" t="n">
-        <v>6</v>
-      </c>
-      <c r="E325" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F325" t="n">
-        <v>77403.15949999999</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-23842060.19861386</v>
-      </c>
-      <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C326" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D326" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E326" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F326" t="n">
-        <v>1121.2374</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-23843181.43601386</v>
-      </c>
-      <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>6</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C327" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D327" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E327" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F327" t="n">
-        <v>9220</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-23852401.43601386</v>
-      </c>
-      <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C328" t="n">
-        <v>6</v>
-      </c>
-      <c r="D328" t="n">
-        <v>6</v>
-      </c>
-      <c r="E328" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F328" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-23847401.43601386</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C329" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="D329" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E329" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F329" t="n">
-        <v>206122.6174</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-24053524.05341386</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>6</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C330" t="n">
-        <v>6</v>
-      </c>
-      <c r="D330" t="n">
-        <v>6</v>
-      </c>
-      <c r="E330" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F330" t="n">
-        <v>428.9228</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-24053095.13061386</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>6</v>
-      </c>
-      <c r="C331" t="n">
-        <v>6</v>
-      </c>
-      <c r="D331" t="n">
-        <v>6</v>
-      </c>
-      <c r="E331" t="n">
-        <v>6</v>
-      </c>
-      <c r="F331" t="n">
-        <v>26579</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-24053095.13061386</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>6</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C332" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D332" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E332" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F332" t="n">
-        <v>55555</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-24108650.13061386</v>
-      </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>6</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C333" t="n">
-        <v>6</v>
-      </c>
-      <c r="D333" t="n">
-        <v>6</v>
-      </c>
-      <c r="E333" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F333" t="n">
-        <v>2300</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-24106350.13061386</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C334" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D334" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E334" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F334" t="n">
-        <v>288670.7978</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-24395020.92841386</v>
-      </c>
-      <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>6</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C335" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D335" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E335" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F335" t="n">
-        <v>23046.1333</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-24371974.79511387</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C336" t="n">
-        <v>6</v>
-      </c>
-      <c r="D336" t="n">
-        <v>6</v>
-      </c>
-      <c r="E336" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F336" t="n">
-        <v>81666.3282</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-24290308.46691386</v>
-      </c>
-      <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>6</v>
-      </c>
-      <c r="C337" t="n">
-        <v>6</v>
-      </c>
-      <c r="D337" t="n">
-        <v>6</v>
-      </c>
-      <c r="E337" t="n">
-        <v>6</v>
-      </c>
-      <c r="F337" t="n">
-        <v>84149.1997</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-24290308.46691386</v>
-      </c>
-      <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>6</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>6</v>
-      </c>
-      <c r="C338" t="n">
-        <v>6</v>
-      </c>
-      <c r="D338" t="n">
-        <v>6</v>
-      </c>
-      <c r="E338" t="n">
-        <v>6</v>
-      </c>
-      <c r="F338" t="n">
-        <v>250000</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-24290308.46691386</v>
-      </c>
-      <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>6</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>6</v>
-      </c>
-      <c r="C339" t="n">
-        <v>6</v>
-      </c>
-      <c r="D339" t="n">
-        <v>6</v>
-      </c>
-      <c r="E339" t="n">
-        <v>6</v>
-      </c>
-      <c r="F339" t="n">
-        <v>62035.475</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-24290308.46691386</v>
-      </c>
-      <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>6</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C340" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D340" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E340" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F340" t="n">
-        <v>23046.1333</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-24267262.33361387</v>
-      </c>
-      <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>6</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C341" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D341" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E341" t="n">
-        <v>6</v>
-      </c>
-      <c r="F341" t="n">
-        <v>1645831.1957</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-22621431.13791386</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11848,7 +11692,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>6</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11885,7 +11731,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>6</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11922,7 +11770,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>6</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11959,7 +11809,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>6</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11996,7 +11848,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>6</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12030,12 +11884,12 @@
         <v>-22838718.44051386</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>6</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>6</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12072,7 +11926,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>6</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12111,7 +11967,9 @@
       <c r="I349" t="n">
         <v>5.97</v>
       </c>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>6</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12145,12 +12003,12 @@
         <v>-23077714.40651386</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>6</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12184,12 +12042,12 @@
         <v>-23077714.40651386</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>6</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>6</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12223,12 +12081,12 @@
         <v>-23077392.12701386</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>6</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>6</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12267,7 +12125,9 @@
       <c r="I353" t="n">
         <v>6.01</v>
       </c>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>6</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12301,12 +12161,12 @@
         <v>-23085760.93485705</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>6</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>6</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12340,12 +12200,12 @@
         <v>-23212009.30385705</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>6</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12379,12 +12239,12 @@
         <v>-23211795.95875705</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>6</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12421,7 +12281,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>6</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12455,12 +12317,12 @@
         <v>-23210903.95865705</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>6</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12494,12 +12356,12 @@
         <v>-23210860.21495705</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>6</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>6</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12533,12 +12395,12 @@
         <v>-23230780.66165705</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>6</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12577,7 +12439,9 @@
       <c r="I361" t="n">
         <v>5.98</v>
       </c>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>6</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12616,7 +12480,9 @@
       <c r="I362" t="n">
         <v>5.97</v>
       </c>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>6</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12655,7 +12521,9 @@
       <c r="I363" t="n">
         <v>6.01</v>
       </c>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>6</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12694,7 +12562,9 @@
       <c r="I364" t="n">
         <v>6.01</v>
       </c>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>6</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12733,7 +12603,9 @@
       <c r="I365" t="n">
         <v>6</v>
       </c>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>6</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12772,7 +12644,9 @@
       <c r="I366" t="n">
         <v>6</v>
       </c>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>6</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12806,12 +12680,12 @@
         <v>-23243194.33375705</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>6</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12845,12 +12719,12 @@
         <v>-23243194.33375705</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>6</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>6</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12884,12 +12758,12 @@
         <v>-23243194.33375705</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>6</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>6</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12923,12 +12797,12 @@
         <v>-23245403.24685705</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>6</v>
-      </c>
-      <c r="J370" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>6</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12967,7 +12841,9 @@
       <c r="I371" t="n">
         <v>5.99</v>
       </c>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>6</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13006,7 +12882,9 @@
       <c r="I372" t="n">
         <v>6</v>
       </c>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>6</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13045,7 +12923,9 @@
       <c r="I373" t="n">
         <v>6</v>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>6</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13084,7 +12964,9 @@
       <c r="I374" t="n">
         <v>5.98</v>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>6</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13123,7 +13005,9 @@
       <c r="I375" t="n">
         <v>5.94</v>
       </c>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>6</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13162,7 +13046,9 @@
       <c r="I376" t="n">
         <v>5.9</v>
       </c>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>6</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13201,7 +13087,9 @@
       <c r="I377" t="n">
         <v>5.88</v>
       </c>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>6</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13240,7 +13128,9 @@
       <c r="I378" t="n">
         <v>5.95</v>
       </c>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>6</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13279,7 +13169,9 @@
       <c r="I379" t="n">
         <v>5.95</v>
       </c>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>6</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13318,7 +13210,9 @@
       <c r="I380" t="n">
         <v>5.97</v>
       </c>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>6</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13357,7 +13251,9 @@
       <c r="I381" t="n">
         <v>5.97</v>
       </c>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>6</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13396,7 +13292,9 @@
       <c r="I382" t="n">
         <v>5.95</v>
       </c>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>6</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13435,7 +13333,9 @@
       <c r="I383" t="n">
         <v>5.87</v>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>6</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13474,7 +13374,9 @@
       <c r="I384" t="n">
         <v>5.93</v>
       </c>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>6</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13513,7 +13415,9 @@
       <c r="I385" t="n">
         <v>5.93</v>
       </c>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>6</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13552,7 +13456,9 @@
       <c r="I386" t="n">
         <v>5.93</v>
       </c>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>6</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13591,7 +13497,9 @@
       <c r="I387" t="n">
         <v>5.97</v>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>6</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13630,7 +13538,9 @@
       <c r="I388" t="n">
         <v>5.93</v>
       </c>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>6</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13669,7 +13579,9 @@
       <c r="I389" t="n">
         <v>5.97</v>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>6</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13708,7 +13620,9 @@
       <c r="I390" t="n">
         <v>5.98</v>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>6</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13747,7 +13661,9 @@
       <c r="I391" t="n">
         <v>5.98</v>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>6</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13786,7 +13702,9 @@
       <c r="I392" t="n">
         <v>6.02</v>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>6</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13825,7 +13743,9 @@
       <c r="I393" t="n">
         <v>6.02</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>6</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13859,12 +13779,12 @@
         <v>-23057939.60395705</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J394" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>6</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13903,7 +13823,9 @@
       <c r="I395" t="n">
         <v>6.05</v>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>6</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13937,12 +13859,12 @@
         <v>-23057912.87955705</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J396" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>6</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13979,7 +13901,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>6</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14016,7 +13940,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>6</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14053,7 +13979,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>6</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14090,7 +14018,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>6</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14127,7 +14057,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>6</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14161,12 +14093,12 @@
         <v>-23421681.19775705</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="J402" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>6</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14203,7 +14135,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>6</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14240,7 +14174,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>6</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14277,7 +14213,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>6</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14314,7 +14252,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>6</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14351,7 +14291,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>6</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14388,7 +14330,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>6</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14425,7 +14369,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>6</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14462,7 +14408,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>6</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14499,7 +14447,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>6</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14536,7 +14486,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>6</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14573,7 +14525,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>6</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14610,7 +14564,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>6</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14647,7 +14603,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>6</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14684,7 +14642,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>6</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14721,7 +14681,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>6</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14758,7 +14720,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>6</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14795,7 +14759,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>6</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14832,7 +14798,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>6</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14869,7 +14837,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>6</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14906,7 +14876,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>6</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14943,7 +14915,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>6</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14977,12 +14951,12 @@
         <v>-24616318.51005705</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J424" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>6</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15016,12 +14990,12 @@
         <v>-24613378.25085706</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J425" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>6</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15055,12 +15029,12 @@
         <v>-24613378.25085706</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J426" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>6</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15094,12 +15068,12 @@
         <v>-24613378.25085706</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J427" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>6</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15136,7 +15110,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>6</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15173,7 +15149,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>6</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15207,12 +15185,12 @@
         <v>-24613977.25085706</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J430" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>6</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15246,12 +15224,12 @@
         <v>-24613866.25085706</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J431" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>6</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15285,12 +15263,12 @@
         <v>-24613866.25085706</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J432" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>6</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15324,12 +15302,12 @@
         <v>-24613866.25085706</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J433" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>6</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15366,7 +15344,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>6</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15403,7 +15383,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>6</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15437,12 +15419,12 @@
         <v>-24613815.71815706</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J436" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>6</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15476,12 +15458,12 @@
         <v>-24613905.71815706</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="J437" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>6</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15515,12 +15497,12 @@
         <v>-24613875.71815706</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="J438" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>6</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15554,12 +15536,12 @@
         <v>-24613853.71815706</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J439" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>6</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15593,12 +15575,12 @@
         <v>-24613853.71815706</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="J440" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>6</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15632,12 +15614,12 @@
         <v>-24613726.81035706</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="J441" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>6</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15674,7 +15656,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>6</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15711,7 +15695,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>6</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15748,7 +15734,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>6</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15785,7 +15773,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>6</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15822,7 +15812,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>6</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15859,7 +15851,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>6</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15898,7 +15892,9 @@
       <c r="I448" t="n">
         <v>5.97</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>6</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15932,12 +15928,12 @@
         <v>-25197790.65365706</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="J449" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>6</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15971,12 +15967,12 @@
         <v>-24498599.71515706</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="J450" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>6</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16013,7 +16009,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>6</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16050,7 +16048,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>6</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16087,7 +16087,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>6</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16124,7 +16126,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>6</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16161,7 +16165,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>6</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16198,7 +16204,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>6</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16235,7 +16243,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>6</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16272,7 +16282,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>6</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16309,7 +16321,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>6</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16346,7 +16360,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>6</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16383,7 +16399,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>6</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16420,7 +16438,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>6</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16457,7 +16477,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>6</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16494,7 +16516,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>6</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16531,7 +16555,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>6</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16568,7 +16594,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>6</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16605,7 +16633,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>6</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16642,7 +16672,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>6</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16679,7 +16711,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>6</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16716,7 +16750,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>6</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16753,7 +16789,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>6</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16790,7 +16828,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>6</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16824,19 +16864,23 @@
         <v>-17507512.22975706</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>6</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
+        <v>1.086666666666667</v>
+      </c>
+      <c r="M473" t="n">
+        <v>1.119327731092437</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -16861,15 +16905,11 @@
         <v>-15200816.25445706</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16898,15 +16938,11 @@
         <v>-15200816.25445706</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16935,15 +16971,11 @@
         <v>-11644826.00515706</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16972,15 +17004,11 @@
         <v>-8453422.965857064</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17009,15 +17037,11 @@
         <v>-4337426.56601145</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17046,15 +17070,11 @@
         <v>201900.0093885502</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17087,11 +17107,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17124,11 +17140,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17161,11 +17173,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17198,11 +17206,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17235,11 +17239,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17272,11 +17272,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17309,11 +17305,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17346,11 +17338,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17383,11 +17371,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17420,11 +17404,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17457,11 +17437,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17490,19 +17466,17 @@
         <v>8475716.263859708</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="n">
+        <v>1</v>
+      </c>
       <c r="M491" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest HYC.xlsx
+++ b/BackTest/2019-10-16 BackTest HYC.xlsx
@@ -11572,14 +11572,10 @@
         <v>-24290308.46691386</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>6</v>
-      </c>
-      <c r="J339" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
@@ -11609,1246 +11605,1056 @@
         <v>-24267262.33361387</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C341" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D341" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E341" t="n">
         <v>6</v>
       </c>
-      <c r="J340" t="n">
+      <c r="F341" t="n">
+        <v>1645831.1957</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-22621431.13791386</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C342" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D342" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E342" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F342" t="n">
+        <v>111.592</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-22621319.54591386</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C343" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D343" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E343" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F343" t="n">
+        <v>4809.2868</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-22621319.54591386</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C344" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D344" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E344" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F344" t="n">
+        <v>23174.1624</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-22621319.54591386</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C345" t="n">
         <v>6</v>
       </c>
-      <c r="K340" t="inlineStr">
+      <c r="D345" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E345" t="n">
+        <v>6</v>
+      </c>
+      <c r="F345" t="n">
+        <v>234258.6121</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-22855578.15801387</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>6</v>
+      </c>
+      <c r="C346" t="n">
+        <v>6</v>
+      </c>
+      <c r="D346" t="n">
+        <v>6</v>
+      </c>
+      <c r="E346" t="n">
+        <v>6</v>
+      </c>
+      <c r="F346" t="n">
+        <v>42167.2812</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-22855578.15801387</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>6</v>
+      </c>
+      <c r="C347" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D347" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E347" t="n">
+        <v>6</v>
+      </c>
+      <c r="F347" t="n">
+        <v>16859.7175</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-22838718.44051386</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C348" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D348" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E348" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F348" t="n">
+        <v>11</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-22838729.44051386</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>6</v>
+      </c>
+      <c r="C349" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D349" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E349" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F349" t="n">
+        <v>238995.966</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-23077725.40651386</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>6</v>
+      </c>
+      <c r="C350" t="n">
+        <v>6</v>
+      </c>
+      <c r="D350" t="n">
+        <v>6</v>
+      </c>
+      <c r="E350" t="n">
+        <v>6</v>
+      </c>
+      <c r="F350" t="n">
+        <v>11</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-23077714.40651386</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>6</v>
+      </c>
+      <c r="C351" t="n">
+        <v>6</v>
+      </c>
+      <c r="D351" t="n">
+        <v>6</v>
+      </c>
+      <c r="E351" t="n">
+        <v>6</v>
+      </c>
+      <c r="F351" t="n">
+        <v>10</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-23077714.40651386</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>6</v>
+      </c>
+      <c r="C352" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D352" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E352" t="n">
+        <v>6</v>
+      </c>
+      <c r="F352" t="n">
+        <v>322.2795</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-23077392.12701386</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>6</v>
+      </c>
+      <c r="C353" t="n">
+        <v>6</v>
+      </c>
+      <c r="D353" t="n">
+        <v>6</v>
+      </c>
+      <c r="E353" t="n">
+        <v>6</v>
+      </c>
+      <c r="F353" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-23087392.12701386</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C354" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D354" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E354" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F354" t="n">
+        <v>1631.19215681</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-23085760.93485705</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C355" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D355" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E355" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F355" t="n">
+        <v>126248.369</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-23212009.30385705</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C356" t="n">
+        <v>6</v>
+      </c>
+      <c r="D356" t="n">
+        <v>6</v>
+      </c>
+      <c r="E356" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F356" t="n">
+        <v>213.3451</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-23211795.95875705</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>6</v>
+      </c>
+      <c r="C357" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D357" t="n">
+        <v>6</v>
+      </c>
+      <c r="E357" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F357" t="n">
+        <v>20</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-23211815.95875705</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>6</v>
+      </c>
+      <c r="C358" t="n">
+        <v>6</v>
+      </c>
+      <c r="D358" t="n">
+        <v>6</v>
+      </c>
+      <c r="E358" t="n">
+        <v>6</v>
+      </c>
+      <c r="F358" t="n">
+        <v>912.0001</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-23210903.95865705</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C359" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D359" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E359" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F359" t="n">
+        <v>43.7437</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-23210860.21495705</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C360" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D360" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E360" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F360" t="n">
+        <v>19920.4467</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-23230780.66165705</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C361" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D361" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E361" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F361" t="n">
+        <v>174188.1128</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-23404968.77445704</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>6</v>
+      </c>
+      <c r="C362" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D362" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E362" t="n">
+        <v>6</v>
+      </c>
+      <c r="F362" t="n">
+        <v>1122</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-23403846.77445704</v>
+      </c>
+      <c r="H362" t="n">
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="J362" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C363" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D363" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E363" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F363" t="n">
+        <v>1057</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-23403846.77445704</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K363" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C341" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D341" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E341" t="n">
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
         <v>6</v>
       </c>
-      <c r="F341" t="n">
-        <v>1645831.1957</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-22621431.13791386</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
+      <c r="C364" t="n">
         <v>6</v>
       </c>
-      <c r="K341" t="inlineStr">
+      <c r="D364" t="n">
+        <v>6</v>
+      </c>
+      <c r="E364" t="n">
+        <v>6</v>
+      </c>
+      <c r="F364" t="n">
+        <v>511</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-23404357.77445704</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>6</v>
+      </c>
+      <c r="C365" t="n">
+        <v>6</v>
+      </c>
+      <c r="D365" t="n">
+        <v>6</v>
+      </c>
+      <c r="E365" t="n">
+        <v>6</v>
+      </c>
+      <c r="F365" t="n">
+        <v>2961</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-23404357.77445704</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C366" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D366" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E366" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F366" t="n">
+        <v>185562.6718</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-23218795.10265705</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C367" t="n">
+        <v>6</v>
+      </c>
+      <c r="D367" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E367" t="n">
+        <v>6</v>
+      </c>
+      <c r="F367" t="n">
+        <v>24399.2311</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-23243194.33375705</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>6</v>
+      </c>
+      <c r="C368" t="n">
+        <v>6</v>
+      </c>
+      <c r="D368" t="n">
+        <v>6</v>
+      </c>
+      <c r="E368" t="n">
+        <v>6</v>
+      </c>
+      <c r="F368" t="n">
+        <v>2359</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-23243194.33375705</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>6</v>
+      </c>
+      <c r="C369" t="n">
+        <v>6</v>
+      </c>
+      <c r="D369" t="n">
+        <v>6</v>
+      </c>
+      <c r="E369" t="n">
+        <v>6</v>
+      </c>
+      <c r="F369" t="n">
+        <v>14661.909893178</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-23243194.33375705</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C370" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D370" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E370" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F370" t="n">
+        <v>2208.9131</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-23245403.24685705</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C371" t="n">
+        <v>6</v>
+      </c>
+      <c r="D371" t="n">
+        <v>6</v>
+      </c>
+      <c r="E371" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F371" t="n">
+        <v>33.0869</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-23245370.15995705</v>
+      </c>
+      <c r="H371" t="n">
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C342" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D342" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E342" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F342" t="n">
-        <v>111.592</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-22621319.54591386</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>6</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C343" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D343" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E343" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F343" t="n">
-        <v>4809.2868</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-22621319.54591386</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>6</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C344" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D344" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E344" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F344" t="n">
-        <v>23174.1624</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-22621319.54591386</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>6</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C345" t="n">
-        <v>6</v>
-      </c>
-      <c r="D345" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E345" t="n">
-        <v>6</v>
-      </c>
-      <c r="F345" t="n">
-        <v>234258.6121</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-22855578.15801387</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>6</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>6</v>
-      </c>
-      <c r="C346" t="n">
-        <v>6</v>
-      </c>
-      <c r="D346" t="n">
-        <v>6</v>
-      </c>
-      <c r="E346" t="n">
-        <v>6</v>
-      </c>
-      <c r="F346" t="n">
-        <v>42167.2812</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-22855578.15801387</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>6</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>6</v>
-      </c>
-      <c r="C347" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D347" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E347" t="n">
-        <v>6</v>
-      </c>
-      <c r="F347" t="n">
-        <v>16859.7175</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-22838718.44051386</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>6</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C348" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D348" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E348" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F348" t="n">
-        <v>11</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-22838729.44051386</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>6</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>6</v>
-      </c>
-      <c r="C349" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D349" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E349" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F349" t="n">
-        <v>238995.966</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-23077725.40651386</v>
-      </c>
-      <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J349" t="n">
-        <v>6</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>6</v>
-      </c>
-      <c r="C350" t="n">
-        <v>6</v>
-      </c>
-      <c r="D350" t="n">
-        <v>6</v>
-      </c>
-      <c r="E350" t="n">
-        <v>6</v>
-      </c>
-      <c r="F350" t="n">
-        <v>11</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-23077714.40651386</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>6</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>6</v>
-      </c>
-      <c r="C351" t="n">
-        <v>6</v>
-      </c>
-      <c r="D351" t="n">
-        <v>6</v>
-      </c>
-      <c r="E351" t="n">
-        <v>6</v>
-      </c>
-      <c r="F351" t="n">
-        <v>10</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-23077714.40651386</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>6</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>6</v>
-      </c>
-      <c r="C352" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D352" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E352" t="n">
-        <v>6</v>
-      </c>
-      <c r="F352" t="n">
-        <v>322.2795</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-23077392.12701386</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>6</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>6</v>
-      </c>
-      <c r="C353" t="n">
-        <v>6</v>
-      </c>
-      <c r="D353" t="n">
-        <v>6</v>
-      </c>
-      <c r="E353" t="n">
-        <v>6</v>
-      </c>
-      <c r="F353" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-23087392.12701386</v>
-      </c>
-      <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J353" t="n">
-        <v>6</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C354" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D354" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E354" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F354" t="n">
-        <v>1631.19215681</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-23085760.93485705</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>6</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C355" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D355" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E355" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F355" t="n">
-        <v>126248.369</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-23212009.30385705</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>6</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C356" t="n">
-        <v>6</v>
-      </c>
-      <c r="D356" t="n">
-        <v>6</v>
-      </c>
-      <c r="E356" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F356" t="n">
-        <v>213.3451</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-23211795.95875705</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>6</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>6</v>
-      </c>
-      <c r="C357" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D357" t="n">
-        <v>6</v>
-      </c>
-      <c r="E357" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F357" t="n">
-        <v>20</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-23211815.95875705</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>6</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>6</v>
-      </c>
-      <c r="C358" t="n">
-        <v>6</v>
-      </c>
-      <c r="D358" t="n">
-        <v>6</v>
-      </c>
-      <c r="E358" t="n">
-        <v>6</v>
-      </c>
-      <c r="F358" t="n">
-        <v>912.0001</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-23210903.95865705</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>6</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C359" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D359" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E359" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F359" t="n">
-        <v>43.7437</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-23210860.21495705</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>6</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C360" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D360" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E360" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F360" t="n">
-        <v>19920.4467</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-23230780.66165705</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>6</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C361" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D361" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E361" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F361" t="n">
-        <v>174188.1128</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-23404968.77445704</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="J361" t="n">
-        <v>6</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>6</v>
-      </c>
-      <c r="C362" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D362" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E362" t="n">
-        <v>6</v>
-      </c>
-      <c r="F362" t="n">
-        <v>1122</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-23403846.77445704</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J362" t="n">
-        <v>6</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C363" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D363" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E363" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F363" t="n">
-        <v>1057</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-23403846.77445704</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J363" t="n">
-        <v>6</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>6</v>
-      </c>
-      <c r="C364" t="n">
-        <v>6</v>
-      </c>
-      <c r="D364" t="n">
-        <v>6</v>
-      </c>
-      <c r="E364" t="n">
-        <v>6</v>
-      </c>
-      <c r="F364" t="n">
-        <v>511</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-23404357.77445704</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J364" t="n">
-        <v>6</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>6</v>
-      </c>
-      <c r="C365" t="n">
-        <v>6</v>
-      </c>
-      <c r="D365" t="n">
-        <v>6</v>
-      </c>
-      <c r="E365" t="n">
-        <v>6</v>
-      </c>
-      <c r="F365" t="n">
-        <v>2961</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-23404357.77445704</v>
-      </c>
-      <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>6</v>
-      </c>
-      <c r="J365" t="n">
-        <v>6</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C366" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D366" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E366" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F366" t="n">
-        <v>185562.6718</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-23218795.10265705</v>
-      </c>
-      <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>6</v>
-      </c>
-      <c r="J366" t="n">
-        <v>6</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C367" t="n">
-        <v>6</v>
-      </c>
-      <c r="D367" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E367" t="n">
-        <v>6</v>
-      </c>
-      <c r="F367" t="n">
-        <v>24399.2311</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-23243194.33375705</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>6</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>6</v>
-      </c>
-      <c r="C368" t="n">
-        <v>6</v>
-      </c>
-      <c r="D368" t="n">
-        <v>6</v>
-      </c>
-      <c r="E368" t="n">
-        <v>6</v>
-      </c>
-      <c r="F368" t="n">
-        <v>2359</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-23243194.33375705</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>6</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>6</v>
-      </c>
-      <c r="C369" t="n">
-        <v>6</v>
-      </c>
-      <c r="D369" t="n">
-        <v>6</v>
-      </c>
-      <c r="E369" t="n">
-        <v>6</v>
-      </c>
-      <c r="F369" t="n">
-        <v>14661.909893178</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-23243194.33375705</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>6</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C370" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D370" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E370" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F370" t="n">
-        <v>2208.9131</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-23245403.24685705</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>6</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C371" t="n">
-        <v>6</v>
-      </c>
-      <c r="D371" t="n">
-        <v>6</v>
-      </c>
-      <c r="E371" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F371" t="n">
-        <v>33.0869</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-23245370.15995705</v>
-      </c>
-      <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J371" t="n">
-        <v>6</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12882,9 +12688,7 @@
       <c r="I372" t="n">
         <v>6</v>
       </c>
-      <c r="J372" t="n">
-        <v>6</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12923,9 +12727,7 @@
       <c r="I373" t="n">
         <v>6</v>
       </c>
-      <c r="J373" t="n">
-        <v>6</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12964,9 +12766,7 @@
       <c r="I374" t="n">
         <v>5.98</v>
       </c>
-      <c r="J374" t="n">
-        <v>6</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13005,9 +12805,7 @@
       <c r="I375" t="n">
         <v>5.94</v>
       </c>
-      <c r="J375" t="n">
-        <v>6</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13046,9 +12844,7 @@
       <c r="I376" t="n">
         <v>5.9</v>
       </c>
-      <c r="J376" t="n">
-        <v>6</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13087,9 +12883,7 @@
       <c r="I377" t="n">
         <v>5.88</v>
       </c>
-      <c r="J377" t="n">
-        <v>6</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13128,9 +12922,7 @@
       <c r="I378" t="n">
         <v>5.95</v>
       </c>
-      <c r="J378" t="n">
-        <v>6</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13169,9 +12961,7 @@
       <c r="I379" t="n">
         <v>5.95</v>
       </c>
-      <c r="J379" t="n">
-        <v>6</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13210,9 +13000,7 @@
       <c r="I380" t="n">
         <v>5.97</v>
       </c>
-      <c r="J380" t="n">
-        <v>6</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13251,9 +13039,7 @@
       <c r="I381" t="n">
         <v>5.97</v>
       </c>
-      <c r="J381" t="n">
-        <v>6</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13292,9 +13078,7 @@
       <c r="I382" t="n">
         <v>5.95</v>
       </c>
-      <c r="J382" t="n">
-        <v>6</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13333,9 +13117,7 @@
       <c r="I383" t="n">
         <v>5.87</v>
       </c>
-      <c r="J383" t="n">
-        <v>6</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13374,9 +13156,7 @@
       <c r="I384" t="n">
         <v>5.93</v>
       </c>
-      <c r="J384" t="n">
-        <v>6</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13415,9 +13195,7 @@
       <c r="I385" t="n">
         <v>5.93</v>
       </c>
-      <c r="J385" t="n">
-        <v>6</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13456,9 +13234,7 @@
       <c r="I386" t="n">
         <v>5.93</v>
       </c>
-      <c r="J386" t="n">
-        <v>6</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13497,9 +13273,7 @@
       <c r="I387" t="n">
         <v>5.97</v>
       </c>
-      <c r="J387" t="n">
-        <v>6</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13538,9 +13312,7 @@
       <c r="I388" t="n">
         <v>5.93</v>
       </c>
-      <c r="J388" t="n">
-        <v>6</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13579,9 +13351,7 @@
       <c r="I389" t="n">
         <v>5.97</v>
       </c>
-      <c r="J389" t="n">
-        <v>6</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13620,9 +13390,7 @@
       <c r="I390" t="n">
         <v>5.98</v>
       </c>
-      <c r="J390" t="n">
-        <v>6</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13661,9 +13429,7 @@
       <c r="I391" t="n">
         <v>5.98</v>
       </c>
-      <c r="J391" t="n">
-        <v>6</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13702,9 +13468,7 @@
       <c r="I392" t="n">
         <v>6.02</v>
       </c>
-      <c r="J392" t="n">
-        <v>6</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13743,9 +13507,7 @@
       <c r="I393" t="n">
         <v>6.02</v>
       </c>
-      <c r="J393" t="n">
-        <v>6</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13779,12 +13541,12 @@
         <v>-23057939.60395705</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13818,14 +13580,10 @@
         <v>-23057912.87955705</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J395" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13862,9 +13620,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>6</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13901,9 +13657,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>6</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13940,9 +13694,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>6</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13979,9 +13731,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>6</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14018,9 +13768,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>6</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14057,9 +13805,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>6</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14096,9 +13842,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>6</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14135,9 +13879,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>6</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14174,9 +13916,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>6</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14213,9 +13953,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>6</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14252,9 +13990,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>6</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14291,9 +14027,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>6</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14330,9 +14064,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>6</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14369,9 +14101,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>6</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14408,9 +14138,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>6</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14447,9 +14175,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>6</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14486,9 +14212,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>6</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14525,9 +14249,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>6</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14564,9 +14286,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>6</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14603,9 +14323,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>6</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14642,9 +14360,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>6</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14681,9 +14397,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>6</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14720,9 +14434,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>6</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14759,9 +14471,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>6</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14798,9 +14508,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>6</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14837,9 +14545,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>6</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14876,9 +14582,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>6</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14915,9 +14619,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>6</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14954,9 +14656,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>6</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14993,9 +14693,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>6</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15032,9 +14730,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>6</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15071,9 +14767,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>6</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15110,9 +14804,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>6</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15149,9 +14841,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>6</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15188,9 +14878,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>6</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15227,9 +14915,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>6</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15266,9 +14952,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>6</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15305,9 +14989,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>6</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15344,9 +15026,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>6</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15383,9 +15063,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>6</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15422,9 +15100,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>6</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15461,9 +15137,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>6</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15500,9 +15174,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>6</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15539,9 +15211,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>6</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15578,9 +15248,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>6</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15617,9 +15285,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>6</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15656,9 +15322,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>6</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15695,9 +15359,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>6</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15734,9 +15396,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>6</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15773,9 +15433,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>6</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15812,9 +15470,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>6</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15851,9 +15507,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>6</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15887,14 +15541,10 @@
         <v>-25197790.65365706</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J448" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15931,9 +15581,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>6</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15970,9 +15618,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>6</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16009,9 +15655,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>6</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16048,9 +15692,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>6</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16087,9 +15729,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>6</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16126,9 +15766,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>6</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16165,9 +15803,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>6</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16204,9 +15840,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>6</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16243,9 +15877,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>6</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16282,9 +15914,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>6</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16321,9 +15951,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>6</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16360,9 +15988,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>6</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16399,9 +16025,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>6</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16438,9 +16062,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>6</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16477,9 +16099,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>6</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16516,9 +16136,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>6</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16555,9 +16173,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>6</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16594,9 +16210,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>6</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16633,9 +16247,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>6</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16672,9 +16284,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>6</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16711,9 +16321,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>6</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16750,9 +16358,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>6</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16789,9 +16395,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>6</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16828,9 +16432,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>6</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16864,319 +16466,349 @@
         <v>-17507512.22975706</v>
       </c>
       <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C474" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="D474" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="E474" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="F474" t="n">
+        <v>2306695.9753</v>
+      </c>
+      <c r="G474" t="n">
+        <v>-15200816.25445706</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="C475" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="D475" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="E475" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F475" t="n">
+        <v>600440.633</v>
+      </c>
+      <c r="G475" t="n">
+        <v>-15200816.25445706</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C476" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D476" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E476" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F476" t="n">
+        <v>3555990.2493</v>
+      </c>
+      <c r="G476" t="n">
+        <v>-11644826.00515706</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C477" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="D477" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E477" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F477" t="n">
+        <v>3191403.0393</v>
+      </c>
+      <c r="G477" t="n">
+        <v>-8453422.965857064</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="C478" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="D478" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E478" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="F478" t="n">
+        <v>4115996.399845614</v>
+      </c>
+      <c r="G478" t="n">
+        <v>-4337426.56601145</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="C479" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="D479" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="E479" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F479" t="n">
+        <v>4539326.5754</v>
+      </c>
+      <c r="G479" t="n">
+        <v>201900.0093885502</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L479" t="n">
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="C480" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="D480" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E480" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F480" t="n">
+        <v>9795157.2753</v>
+      </c>
+      <c r="G480" t="n">
+        <v>9997057.284688551</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L480" t="n">
+        <v>1</v>
+      </c>
+      <c r="M480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="C481" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="D481" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E481" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F481" t="n">
+        <v>701779.564281922</v>
+      </c>
+      <c r="G481" t="n">
+        <v>10698836.84897047</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L481" t="n">
+        <v>1</v>
+      </c>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C482" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="D482" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="E482" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="F482" t="n">
+        <v>903219.3803</v>
+      </c>
+      <c r="G482" t="n">
+        <v>10698836.84897047</v>
+      </c>
+      <c r="H482" t="n">
         <v>2</v>
       </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>6</v>
-      </c>
-      <c r="K473" t="inlineStr">
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L473" t="n">
-        <v>1.086666666666667</v>
-      </c>
-      <c r="M473" t="n">
-        <v>1.119327731092437</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="C474" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="D474" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="E474" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="F474" t="n">
-        <v>2306695.9753</v>
-      </c>
-      <c r="G474" t="n">
-        <v>-15200816.25445706</v>
-      </c>
-      <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
-      <c r="M474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="C475" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="D475" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="E475" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F475" t="n">
-        <v>600440.633</v>
-      </c>
-      <c r="G475" t="n">
-        <v>-15200816.25445706</v>
-      </c>
-      <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
-      <c r="M475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="C476" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D476" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E476" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="F476" t="n">
-        <v>3555990.2493</v>
-      </c>
-      <c r="G476" t="n">
-        <v>-11644826.00515706</v>
-      </c>
-      <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="C477" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="D477" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="E477" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F477" t="n">
-        <v>3191403.0393</v>
-      </c>
-      <c r="G477" t="n">
-        <v>-8453422.965857064</v>
-      </c>
-      <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="C478" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="D478" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="E478" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="F478" t="n">
-        <v>4115996.399845614</v>
-      </c>
-      <c r="G478" t="n">
-        <v>-4337426.56601145</v>
-      </c>
-      <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="C479" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="D479" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="E479" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="F479" t="n">
-        <v>4539326.5754</v>
-      </c>
-      <c r="G479" t="n">
-        <v>201900.0093885502</v>
-      </c>
-      <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="n">
-        <v>1</v>
-      </c>
-      <c r="M479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="C480" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="D480" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="E480" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F480" t="n">
-        <v>9795157.2753</v>
-      </c>
-      <c r="G480" t="n">
-        <v>9997057.284688551</v>
-      </c>
-      <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="n">
-        <v>1</v>
-      </c>
-      <c r="M480" t="inlineStr"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="C481" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="D481" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E481" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="F481" t="n">
-        <v>701779.564281922</v>
-      </c>
-      <c r="G481" t="n">
-        <v>10698836.84897047</v>
-      </c>
-      <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="n">
-        <v>1</v>
-      </c>
-      <c r="M481" t="inlineStr"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="C482" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="D482" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="E482" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="F482" t="n">
-        <v>903219.3803</v>
-      </c>
-      <c r="G482" t="n">
-        <v>10698836.84897047</v>
-      </c>
-      <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="n">
-        <v>1</v>
-      </c>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="inlineStr"/>
     </row>
     <row r="483">
@@ -17202,7 +16834,7 @@
         <v>6046091.051070473</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17235,7 +16867,7 @@
         <v>6046091.051070473</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17268,7 +16900,7 @@
         <v>6279007.965370473</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17301,7 +16933,7 @@
         <v>8205128.542712226</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17334,7 +16966,7 @@
         <v>8205128.542712226</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17367,7 +16999,7 @@
         <v>9246131.050912226</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17400,7 +17032,7 @@
         <v>8572845.787512226</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17433,7 +17065,7 @@
         <v>8762481.786759708</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17466,7 +17098,7 @@
         <v>8475716.263859708</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
